--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1365072.50603484</v>
+        <v>1402253.940655965</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6605221.096453899</v>
+        <v>5312247.587582166</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3505190.119178669</v>
+        <v>2231567.426506397</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7794273.964137789</v>
+        <v>8240718.934283695</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +661,22 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>44.53001283985306</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>169.6561230108597</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>124.4615907447799</v>
       </c>
       <c r="E4" t="n">
-        <v>155.632303586574</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>115.1825854367171</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -899,22 +901,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>88.49484544678279</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>264.6966215882094</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1054,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>50.6103964367236</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>9.08077759895202</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>244.0039833222869</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
         <v>406.0233447798626</v>
@@ -1148,7 +1150,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -1184,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>84.76227032663424</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>42.43741174507651</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,10 +1305,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>24.1754570395766</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
@@ -1357,7 +1359,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1370,19 +1372,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>307.7194068174555</v>
+        <v>274.2883585578521</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1591,7 +1593,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059088</v>
+        <v>180.6077930059087</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1619,10 +1621,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1661,16 +1663,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>170.250515382732</v>
       </c>
       <c r="V14" t="n">
-        <v>25.63856363475654</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -1828,7 +1830,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059088</v>
+        <v>180.6077930059087</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1844,10 +1846,10 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>363.9585094926619</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
@@ -1901,10 +1903,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>283.7777510779965</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
@@ -2008,13 +2010,13 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>123.4663257560838</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>162.7829502711891</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2059,10 +2061,10 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
@@ -2084,22 +2086,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>368.1319780410717</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2245,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2293,16 +2295,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>248.9925180568699</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>180.6077930059077</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2330,13 +2332,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>84.73179601342657</v>
       </c>
       <c r="T23" t="n">
         <v>219.9844192126098</v>
@@ -2381,7 +2383,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>358.7938392237627</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
         <v>396.9273063213908</v>
@@ -2473,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>21.35780215419764</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2524,25 +2526,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>180.6077930059077</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2560,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
@@ -2567,13 +2569,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>47.64512042712314</v>
       </c>
       <c r="H26" t="n">
-        <v>265.7345771113586</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>11.22535429200825</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,25 +2763,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>59.78186949969471</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
@@ -2801,7 +2803,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>404.6410012660961</v>
@@ -2855,10 +2857,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>370.9729458835154</v>
       </c>
       <c r="Y29" t="n">
-        <v>360.5621482941648</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -2953,13 +2955,13 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>153.0251390105131</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3007,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>220.2647746254034</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>356.9224994274309</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
         <v>406.0233447798626</v>
@@ -3041,10 +3043,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>47.64512042712314</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3187,7 +3189,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3232,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>160.3562652764835</v>
+        <v>42.43741174507654</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
@@ -3272,10 +3274,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>384.5327953590509</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
         <v>404.6410012660961</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3421,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>143.1974930458133</v>
+        <v>220.2647746254034</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>380.4549498986232</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
         <v>406.0233447798626</v>
@@ -3512,16 +3514,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>404.6410012660961</v>
+        <v>47.64512042712314</v>
       </c>
       <c r="H38" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>72.15339398280517</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>113.0775356384635</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
@@ -3743,7 +3745,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
@@ -3755,10 +3757,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>4.702586979977263</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>93.27142537109972</v>
       </c>
     </row>
     <row r="42">
@@ -3898,16 +3900,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>161.6218091235289</v>
       </c>
       <c r="V43" t="n">
-        <v>29.1190767570021</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -3977,22 +3979,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>307.7194068174555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>223.5600409582061</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>254.489886823085</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>159.3854280103019</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
@@ -4144,16 +4146,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4192,16 +4194,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>112.1027016460445</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2138.484332836033</v>
+        <v>333.2842014970884</v>
       </c>
       <c r="C2" t="n">
-        <v>1728.359742149303</v>
+        <v>327.2000148507626</v>
       </c>
       <c r="D2" t="n">
-        <v>1323.895812242364</v>
+        <v>326.7764889842272</v>
       </c>
       <c r="E2" t="n">
-        <v>909.5555967592604</v>
+        <v>316.476677541528</v>
       </c>
       <c r="F2" t="n">
-        <v>864.5757858099139</v>
+        <v>299.4866695356196</v>
       </c>
       <c r="G2" t="n">
-        <v>455.8475017027461</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H2" t="n">
-        <v>144.9390043304641</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I2" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>312.7727131152915</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>850.932214224331</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L2" t="n">
-        <v>1563.523614036569</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M2" t="n">
-        <v>1883.183960193295</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N2" t="n">
-        <v>2608.201075581568</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O2" t="n">
-        <v>2608.201075581568</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P2" t="n">
-        <v>2608.201075581568</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q2" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R2" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2929.36208237686</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>2929.36208237686</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U2" t="n">
-        <v>2929.36208237686</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V2" t="n">
-        <v>2929.36208237686</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W2" t="n">
-        <v>2545.601781512029</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X2" t="n">
-        <v>2545.601781512029</v>
+        <v>339.4649771211738</v>
       </c>
       <c r="Y2" t="n">
-        <v>2144.665108460119</v>
+        <v>339.4649771211738</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>737.4180835340717</v>
+        <v>720.5959275161367</v>
       </c>
       <c r="C3" t="n">
-        <v>603.4230122830173</v>
+        <v>586.6008562650825</v>
       </c>
       <c r="D3" t="n">
-        <v>486.5258545024097</v>
+        <v>469.7036984844749</v>
       </c>
       <c r="E3" t="n">
-        <v>366.0330384947378</v>
+        <v>349.2108824768029</v>
       </c>
       <c r="F3" t="n">
-        <v>257.0731586772423</v>
+        <v>240.2510026593075</v>
       </c>
       <c r="G3" t="n">
-        <v>150.083045991581</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H3" t="n">
-        <v>79.33583302729703</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I3" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
-        <v>251.4000992101705</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K3" t="n">
-        <v>251.4000992101705</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4000992101705</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M3" t="n">
-        <v>251.4000992101705</v>
+        <v>158.3214934345131</v>
       </c>
       <c r="N3" t="n">
-        <v>809.8539351009829</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="O3" t="n">
-        <v>1513.811025646877</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P3" t="n">
-        <v>2075.516918135407</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
-        <v>2075.516918135407</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
-        <v>2105.076437498037</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S3" t="n">
-        <v>1997.086427612346</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T3" t="n">
-        <v>1837.744563799354</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U3" t="n">
-        <v>1640.393752937573</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1426.682225930607</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>1213.449057666935</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
-        <v>1037.123075805828</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>877.7211161696583</v>
+        <v>860.8989601517234</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>481.7450897948999</v>
+        <v>454.9232824936402</v>
       </c>
       <c r="C4" t="n">
-        <v>481.7450897948999</v>
+        <v>283.8299100553567</v>
       </c>
       <c r="D4" t="n">
-        <v>481.7450897948999</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="E4" t="n">
-        <v>324.5407427377544</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="F4" t="n">
-        <v>324.5407427377544</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="G4" t="n">
-        <v>324.5407427377544</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H4" t="n">
-        <v>174.9332875432111</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>72.66979105274773</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>227.2221187749857</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
-        <v>487.1192190550462</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M4" t="n">
-        <v>776.3832754955395</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N4" t="n">
-        <v>1057.22205788979</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O4" t="n">
-        <v>1316.782668216264</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P4" t="n">
-        <v>1522.458108465876</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q4" t="n">
-        <v>1587.986138268387</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1502.713419943787</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1502.713419943787</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T4" t="n">
-        <v>1263.164680920489</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="U4" t="n">
-        <v>980.3665334666132</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="V4" t="n">
-        <v>706.4807884061352</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="W4" t="n">
-        <v>706.4807884061352</v>
+        <v>1105.702549639236</v>
       </c>
       <c r="X4" t="n">
-        <v>706.4807884061352</v>
+        <v>867.3586874989198</v>
       </c>
       <c r="Y4" t="n">
-        <v>481.7450897948999</v>
+        <v>642.6229888876845</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1785.54304718402</v>
+        <v>1542.752026609714</v>
       </c>
       <c r="C5" t="n">
-        <v>1375.41845649729</v>
+        <v>1132.627435922984</v>
       </c>
       <c r="D5" t="n">
-        <v>1374.994930630754</v>
+        <v>728.1635060160443</v>
       </c>
       <c r="E5" t="n">
-        <v>1285.606197856226</v>
+        <v>313.823290532941</v>
       </c>
       <c r="F5" t="n">
-        <v>864.5757858099139</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G5" t="n">
-        <v>455.8475017027461</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
-        <v>144.9390043304641</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>312.7727131152915</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>850.932214224331</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L5" t="n">
-        <v>1394.856875555747</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="M5" t="n">
-        <v>1394.856875555747</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N5" t="n">
-        <v>1394.856875555747</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O5" t="n">
-        <v>2038.487731972852</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P5" t="n">
-        <v>2567.644429892003</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q5" t="n">
-        <v>2888.805436687295</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2929.36208237686</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2929.36208237686</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>2929.36208237686</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V5" t="n">
-        <v>2579.524527713341</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W5" t="n">
-        <v>2195.764226848509</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X5" t="n">
-        <v>2195.764226848509</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="Y5" t="n">
-        <v>2195.764226848509</v>
+        <v>1952.973206274203</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>737.4180835340717</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>603.4230122830173</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>486.5258545024097</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>366.0330384947378</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>257.0731586772423</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>150.083045991581</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>79.33583302729703</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>251.4000992101705</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>251.4000992101705</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4000992101705</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M6" t="n">
-        <v>976.4172145984433</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N6" t="n">
-        <v>1371.559827589513</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O6" t="n">
-        <v>2075.516918135407</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P6" t="n">
-        <v>2075.516918135407</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q6" t="n">
-        <v>2075.516918135407</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R6" t="n">
-        <v>2105.076437498037</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S6" t="n">
-        <v>1997.086427612346</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T6" t="n">
-        <v>1837.744563799354</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U6" t="n">
-        <v>1640.393752937573</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1426.682225930607</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1213.449057666935</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
-        <v>1037.123075805828</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>877.7211161696583</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>506.9374751131751</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="C7" t="n">
-        <v>335.8441026748916</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="D7" t="n">
-        <v>335.8441026748916</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="E7" t="n">
-        <v>174.9332875432111</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9332875432111</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>174.9332875432111</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>174.9332875432111</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J7" t="n">
-        <v>72.66979105274773</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K7" t="n">
-        <v>227.2221187749857</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L7" t="n">
-        <v>487.1192190550462</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M7" t="n">
-        <v>776.3832754955395</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N7" t="n">
-        <v>1057.22205788979</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O7" t="n">
-        <v>1316.782668216264</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P7" t="n">
-        <v>1522.458108465876</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q7" t="n">
-        <v>1587.986138268387</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1502.713419943787</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1316.321651823697</v>
+        <v>1520.042369688105</v>
       </c>
       <c r="T7" t="n">
-        <v>1316.321651823697</v>
+        <v>1280.493630664807</v>
       </c>
       <c r="U7" t="n">
-        <v>1033.523504369821</v>
+        <v>997.6954832109311</v>
       </c>
       <c r="V7" t="n">
-        <v>1024.351001744617</v>
+        <v>723.8097381504531</v>
       </c>
       <c r="W7" t="n">
-        <v>745.2813372534918</v>
+        <v>444.7400736593274</v>
       </c>
       <c r="X7" t="n">
-        <v>506.9374751131751</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="Y7" t="n">
-        <v>506.9374751131751</v>
+        <v>206.3962115190108</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2203.626436560717</v>
+        <v>2547.518411739271</v>
       </c>
       <c r="C8" t="n">
-        <v>1793.501845873987</v>
+        <v>2137.393821052541</v>
       </c>
       <c r="D8" t="n">
-        <v>1389.037915967048</v>
+        <v>1732.929891145602</v>
       </c>
       <c r="E8" t="n">
-        <v>974.6977004839443</v>
+        <v>1318.589675662498</v>
       </c>
       <c r="F8" t="n">
-        <v>553.6672884376319</v>
+        <v>897.5592636161858</v>
       </c>
       <c r="G8" t="n">
-        <v>144.9390043304641</v>
+        <v>488.830979509018</v>
       </c>
       <c r="H8" t="n">
-        <v>144.9390043304641</v>
+        <v>177.922482136736</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J8" t="n">
-        <v>58.5872416475372</v>
+        <v>263.7802573176947</v>
       </c>
       <c r="K8" t="n">
-        <v>58.5872416475372</v>
+        <v>801.9397584267342</v>
       </c>
       <c r="L8" t="n">
-        <v>771.1786414597752</v>
+        <v>1514.531158238972</v>
       </c>
       <c r="M8" t="n">
-        <v>1496.195756848048</v>
+        <v>2290.849749230726</v>
       </c>
       <c r="N8" t="n">
-        <v>2221.212872236321</v>
+        <v>3044.030765869344</v>
       </c>
       <c r="O8" t="n">
-        <v>2864.843728653426</v>
+        <v>3687.661622286449</v>
       </c>
       <c r="P8" t="n">
-        <v>2929.36208237686</v>
+        <v>4216.818320205601</v>
       </c>
       <c r="Q8" t="n">
-        <v>2929.36208237686</v>
+        <v>4537.979327000892</v>
       </c>
       <c r="R8" t="n">
-        <v>2929.36208237686</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="S8" t="n">
-        <v>2929.36208237686</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="T8" t="n">
-        <v>2707.155598323719</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="U8" t="n">
-        <v>2450.095106583229</v>
+        <v>4492.917517815069</v>
       </c>
       <c r="V8" t="n">
-        <v>2450.095106583229</v>
+        <v>4143.079963151549</v>
       </c>
       <c r="W8" t="n">
-        <v>2450.095106583229</v>
+        <v>3759.319662286718</v>
       </c>
       <c r="X8" t="n">
-        <v>2450.095106583229</v>
+        <v>3358.676264455671</v>
       </c>
       <c r="Y8" t="n">
-        <v>2450.095106583229</v>
+        <v>2957.739591403761</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>737.4180835340717</v>
+        <v>770.4015613403435</v>
       </c>
       <c r="C9" t="n">
-        <v>603.4230122830173</v>
+        <v>636.4064900892893</v>
       </c>
       <c r="D9" t="n">
-        <v>486.5258545024097</v>
+        <v>519.5093323086817</v>
       </c>
       <c r="E9" t="n">
-        <v>366.0330384947378</v>
+        <v>399.0165163010097</v>
       </c>
       <c r="F9" t="n">
-        <v>257.0731586772423</v>
+        <v>290.0566364835142</v>
       </c>
       <c r="G9" t="n">
-        <v>150.083045991581</v>
+        <v>183.0665237978529</v>
       </c>
       <c r="H9" t="n">
-        <v>79.33583302729703</v>
+        <v>112.319310833569</v>
       </c>
       <c r="I9" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J9" t="n">
-        <v>251.4000992101705</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="K9" t="n">
-        <v>707.2063554754692</v>
+        <v>547.3769757191078</v>
       </c>
       <c r="L9" t="n">
-        <v>707.2063554754692</v>
+        <v>1208.465147638396</v>
       </c>
       <c r="M9" t="n">
-        <v>707.2063554754692</v>
+        <v>1208.465147638396</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.223470863742</v>
+        <v>1208.465147638396</v>
       </c>
       <c r="O9" t="n">
-        <v>1755.231972814054</v>
+        <v>1912.42223818429</v>
       </c>
       <c r="P9" t="n">
-        <v>1755.231972814054</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="Q9" t="n">
-        <v>2105.076437498037</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="R9" t="n">
-        <v>2105.076437498037</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="S9" t="n">
-        <v>1997.086427612346</v>
+        <v>2030.069905418618</v>
       </c>
       <c r="T9" t="n">
-        <v>1837.744563799354</v>
+        <v>1870.728041605626</v>
       </c>
       <c r="U9" t="n">
-        <v>1640.393752937573</v>
+        <v>1673.377230743845</v>
       </c>
       <c r="V9" t="n">
-        <v>1426.682225930607</v>
+        <v>1459.665703736879</v>
       </c>
       <c r="W9" t="n">
-        <v>1213.449057666935</v>
+        <v>1246.432535473207</v>
       </c>
       <c r="X9" t="n">
-        <v>1037.123075805828</v>
+        <v>1070.1065536121</v>
       </c>
       <c r="Y9" t="n">
-        <v>877.7211161696583</v>
+        <v>910.7045939759302</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>534.9397325936271</v>
+        <v>134.4367919235834</v>
       </c>
       <c r="C10" t="n">
-        <v>534.9397325936271</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="D10" t="n">
-        <v>375.4450879165371</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="E10" t="n">
-        <v>375.4450879165371</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="F10" t="n">
-        <v>375.4450879165371</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="G10" t="n">
-        <v>208.1946968420806</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="H10" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I10" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J10" t="n">
-        <v>72.66979105274773</v>
+        <v>105.6532688590197</v>
       </c>
       <c r="K10" t="n">
-        <v>227.2221187749857</v>
+        <v>260.2055965812576</v>
       </c>
       <c r="L10" t="n">
-        <v>487.1192190550462</v>
+        <v>520.1026968613182</v>
       </c>
       <c r="M10" t="n">
-        <v>776.3832754955395</v>
+        <v>809.3667533018115</v>
       </c>
       <c r="N10" t="n">
-        <v>1057.22205788979</v>
+        <v>1090.205535696062</v>
       </c>
       <c r="O10" t="n">
-        <v>1316.782668216264</v>
+        <v>1349.766146022536</v>
       </c>
       <c r="P10" t="n">
-        <v>1522.458108465876</v>
+        <v>1555.441586272148</v>
       </c>
       <c r="Q10" t="n">
-        <v>1587.986138268387</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="R10" t="n">
-        <v>1502.713419943787</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="S10" t="n">
-        <v>1316.321651823697</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="T10" t="n">
-        <v>1076.772912800399</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="U10" t="n">
-        <v>1076.772912800399</v>
+        <v>1338.171468620783</v>
       </c>
       <c r="V10" t="n">
-        <v>1052.353259225069</v>
+        <v>1064.285723560305</v>
       </c>
       <c r="W10" t="n">
-        <v>773.2835947339438</v>
+        <v>785.2160590691797</v>
       </c>
       <c r="X10" t="n">
-        <v>534.9397325936271</v>
+        <v>546.8721969288631</v>
       </c>
       <c r="Y10" t="n">
-        <v>534.9397325936271</v>
+        <v>322.1364983176278</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>369.4149253015327</v>
+        <v>2018.588815615129</v>
       </c>
       <c r="C11" t="n">
-        <v>369.4149253015327</v>
+        <v>1608.464224928399</v>
       </c>
       <c r="D11" t="n">
-        <v>369.4149253015327</v>
+        <v>1204.000295021459</v>
       </c>
       <c r="E11" t="n">
-        <v>369.4149253015327</v>
+        <v>789.6600795383561</v>
       </c>
       <c r="F11" t="n">
-        <v>369.4149253015327</v>
+        <v>368.6296674920436</v>
       </c>
       <c r="G11" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="H11" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I11" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J11" t="n">
-        <v>58.5872416475372</v>
+        <v>263.7802573176947</v>
       </c>
       <c r="K11" t="n">
-        <v>58.5872416475372</v>
+        <v>801.9397584267342</v>
       </c>
       <c r="L11" t="n">
-        <v>771.1786414597752</v>
+        <v>1514.531158238972</v>
       </c>
       <c r="M11" t="n">
-        <v>1496.195756848048</v>
+        <v>2290.849749230726</v>
       </c>
       <c r="N11" t="n">
-        <v>2221.212872236321</v>
+        <v>3044.030765869344</v>
       </c>
       <c r="O11" t="n">
-        <v>2864.843728653426</v>
+        <v>3687.661622286449</v>
       </c>
       <c r="P11" t="n">
-        <v>2888.805436687295</v>
+        <v>4216.818320205601</v>
       </c>
       <c r="Q11" t="n">
-        <v>2888.805436687295</v>
+        <v>4537.979327000892</v>
       </c>
       <c r="R11" t="n">
-        <v>2929.36208237686</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="S11" t="n">
-        <v>2794.081007170961</v>
+        <v>4443.254897484558</v>
       </c>
       <c r="T11" t="n">
-        <v>2571.87452311782</v>
+        <v>4221.048413431417</v>
       </c>
       <c r="U11" t="n">
-        <v>2314.81403137733</v>
+        <v>3963.987921690927</v>
       </c>
       <c r="V11" t="n">
-        <v>1964.976476713811</v>
+        <v>3614.150367027407</v>
       </c>
       <c r="W11" t="n">
-        <v>1581.216175848979</v>
+        <v>3230.390066162576</v>
       </c>
       <c r="X11" t="n">
-        <v>1180.572778017932</v>
+        <v>2829.746668331528</v>
       </c>
       <c r="Y11" t="n">
-        <v>779.6361049660221</v>
+        <v>2428.809995279618</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>737.4180835340717</v>
+        <v>770.4015613403435</v>
       </c>
       <c r="C12" t="n">
-        <v>603.4230122830173</v>
+        <v>636.4064900892893</v>
       </c>
       <c r="D12" t="n">
-        <v>486.5258545024097</v>
+        <v>519.5093323086817</v>
       </c>
       <c r="E12" t="n">
-        <v>366.0330384947378</v>
+        <v>399.0165163010097</v>
       </c>
       <c r="F12" t="n">
-        <v>257.0731586772423</v>
+        <v>290.0566364835142</v>
       </c>
       <c r="G12" t="n">
-        <v>150.083045991581</v>
+        <v>183.0665237978529</v>
       </c>
       <c r="H12" t="n">
-        <v>79.33583302729703</v>
+        <v>112.319310833569</v>
       </c>
       <c r="I12" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J12" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="K12" t="n">
-        <v>58.5872416475372</v>
+        <v>547.3769757191078</v>
       </c>
       <c r="L12" t="n">
-        <v>719.6754135668255</v>
+        <v>702.6959307041611</v>
       </c>
       <c r="M12" t="n">
-        <v>719.6754135668255</v>
+        <v>702.6959307041611</v>
       </c>
       <c r="N12" t="n">
-        <v>1444.692528955098</v>
+        <v>1576.354022815779</v>
       </c>
       <c r="O12" t="n">
-        <v>1543.370545009507</v>
+        <v>1576.354022815779</v>
       </c>
       <c r="P12" t="n">
-        <v>2105.076437498037</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="Q12" t="n">
-        <v>2105.076437498037</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="R12" t="n">
-        <v>2105.076437498037</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="S12" t="n">
-        <v>1997.086427612346</v>
+        <v>2030.069905418618</v>
       </c>
       <c r="T12" t="n">
-        <v>1837.744563799354</v>
+        <v>1870.728041605626</v>
       </c>
       <c r="U12" t="n">
-        <v>1640.393752937573</v>
+        <v>1673.377230743845</v>
       </c>
       <c r="V12" t="n">
-        <v>1426.682225930607</v>
+        <v>1459.665703736879</v>
       </c>
       <c r="W12" t="n">
-        <v>1213.449057666935</v>
+        <v>1246.432535473207</v>
       </c>
       <c r="X12" t="n">
-        <v>1037.123075805828</v>
+        <v>1070.1065536121</v>
       </c>
       <c r="Y12" t="n">
-        <v>877.7211161696583</v>
+        <v>910.7045939759302</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="C13" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="D13" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="E13" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="F13" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="G13" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="H13" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I13" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J13" t="n">
-        <v>72.66979105274773</v>
+        <v>105.6532688590197</v>
       </c>
       <c r="K13" t="n">
-        <v>227.2221187749857</v>
+        <v>260.2055965812576</v>
       </c>
       <c r="L13" t="n">
-        <v>487.1192190550462</v>
+        <v>520.1026968613182</v>
       </c>
       <c r="M13" t="n">
-        <v>776.3832754955395</v>
+        <v>809.3667533018115</v>
       </c>
       <c r="N13" t="n">
-        <v>1057.22205788979</v>
+        <v>1090.205535696062</v>
       </c>
       <c r="O13" t="n">
-        <v>1316.782668216264</v>
+        <v>1349.766146022536</v>
       </c>
       <c r="P13" t="n">
-        <v>1522.458108465876</v>
+        <v>1555.441586272148</v>
       </c>
       <c r="Q13" t="n">
-        <v>1587.986138268387</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="R13" t="n">
-        <v>1502.713419943787</v>
+        <v>1535.696897750059</v>
       </c>
       <c r="S13" t="n">
-        <v>1316.321651823697</v>
+        <v>1349.305129629969</v>
       </c>
       <c r="T13" t="n">
-        <v>1076.772912800399</v>
+        <v>1109.756390606671</v>
       </c>
       <c r="U13" t="n">
-        <v>793.9747653465236</v>
+        <v>826.9582431527954</v>
       </c>
       <c r="V13" t="n">
-        <v>520.0890202860455</v>
+        <v>553.0724980923173</v>
       </c>
       <c r="W13" t="n">
-        <v>241.0193557949199</v>
+        <v>274.0028336011917</v>
       </c>
       <c r="X13" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="Y13" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1708.546389770622</v>
+        <v>2461.166649056344</v>
       </c>
       <c r="C14" t="n">
-        <v>1298.421799083892</v>
+        <v>2051.042058369614</v>
       </c>
       <c r="D14" t="n">
-        <v>893.957869176953</v>
+        <v>1646.578128462675</v>
       </c>
       <c r="E14" t="n">
-        <v>479.6176536938497</v>
+        <v>1232.237912979571</v>
       </c>
       <c r="F14" t="n">
-        <v>58.5872416475372</v>
+        <v>811.207500933259</v>
       </c>
       <c r="G14" t="n">
-        <v>58.5872416475372</v>
+        <v>402.4792168260911</v>
       </c>
       <c r="H14" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I14" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J14" t="n">
-        <v>82.5489496814065</v>
+        <v>345.7561909215634</v>
       </c>
       <c r="K14" t="n">
-        <v>82.5489496814065</v>
+        <v>883.9156920306029</v>
       </c>
       <c r="L14" t="n">
-        <v>795.1403494936445</v>
+        <v>1596.507091842841</v>
       </c>
       <c r="M14" t="n">
-        <v>1520.157464881917</v>
+        <v>2372.825682834595</v>
       </c>
       <c r="N14" t="n">
-        <v>2245.17458027019</v>
+        <v>3126.006699473213</v>
       </c>
       <c r="O14" t="n">
-        <v>2888.805436687295</v>
+        <v>3769.637555890318</v>
       </c>
       <c r="P14" t="n">
-        <v>2888.805436687295</v>
+        <v>4298.794253809469</v>
       </c>
       <c r="Q14" t="n">
-        <v>2888.805436687295</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="R14" t="n">
-        <v>2929.36208237686</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="S14" t="n">
-        <v>2929.36208237686</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="T14" t="n">
-        <v>2929.36208237686</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="U14" t="n">
-        <v>2929.36208237686</v>
+        <v>4406.565755132142</v>
       </c>
       <c r="V14" t="n">
-        <v>2903.464543351854</v>
+        <v>4056.728200468623</v>
       </c>
       <c r="W14" t="n">
-        <v>2519.704242487022</v>
+        <v>3672.967899603791</v>
       </c>
       <c r="X14" t="n">
-        <v>2519.704242487022</v>
+        <v>3272.324501772744</v>
       </c>
       <c r="Y14" t="n">
-        <v>2118.767569435112</v>
+        <v>2871.387828720834</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>737.4180835340717</v>
+        <v>770.4015613403435</v>
       </c>
       <c r="C15" t="n">
-        <v>603.4230122830173</v>
+        <v>636.4064900892893</v>
       </c>
       <c r="D15" t="n">
-        <v>486.5258545024097</v>
+        <v>519.5093323086817</v>
       </c>
       <c r="E15" t="n">
-        <v>366.0330384947378</v>
+        <v>399.0165163010097</v>
       </c>
       <c r="F15" t="n">
-        <v>257.0731586772423</v>
+        <v>290.0566364835142</v>
       </c>
       <c r="G15" t="n">
-        <v>150.083045991581</v>
+        <v>183.0665237978529</v>
       </c>
       <c r="H15" t="n">
-        <v>79.33583302729703</v>
+        <v>112.319310833569</v>
       </c>
       <c r="I15" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J15" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="K15" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="L15" t="n">
-        <v>676.1022315638701</v>
+        <v>752.6588913730974</v>
       </c>
       <c r="M15" t="n">
-        <v>1401.119346952143</v>
+        <v>752.6588913730974</v>
       </c>
       <c r="N15" t="n">
-        <v>1401.119346952143</v>
+        <v>1626.316983484715</v>
       </c>
       <c r="O15" t="n">
-        <v>2105.076437498037</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="P15" t="n">
-        <v>2105.076437498037</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="Q15" t="n">
-        <v>2105.076437498037</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="R15" t="n">
-        <v>2105.076437498037</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="S15" t="n">
-        <v>1997.086427612346</v>
+        <v>2030.069905418618</v>
       </c>
       <c r="T15" t="n">
-        <v>1837.744563799354</v>
+        <v>1870.728041605626</v>
       </c>
       <c r="U15" t="n">
-        <v>1640.393752937573</v>
+        <v>1673.377230743845</v>
       </c>
       <c r="V15" t="n">
-        <v>1426.682225930607</v>
+        <v>1459.665703736879</v>
       </c>
       <c r="W15" t="n">
-        <v>1213.449057666935</v>
+        <v>1246.432535473207</v>
       </c>
       <c r="X15" t="n">
-        <v>1037.123075805828</v>
+        <v>1070.1065536121</v>
       </c>
       <c r="Y15" t="n">
-        <v>877.7211161696583</v>
+        <v>910.7045939759302</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="C16" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="D16" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="E16" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="F16" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="G16" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="H16" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I16" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J16" t="n">
-        <v>72.66979105274773</v>
+        <v>105.6532688590197</v>
       </c>
       <c r="K16" t="n">
-        <v>227.2221187749857</v>
+        <v>260.2055965812576</v>
       </c>
       <c r="L16" t="n">
-        <v>487.1192190550462</v>
+        <v>520.1026968613182</v>
       </c>
       <c r="M16" t="n">
-        <v>776.3832754955395</v>
+        <v>809.3667533018115</v>
       </c>
       <c r="N16" t="n">
-        <v>1057.22205788979</v>
+        <v>1090.205535696062</v>
       </c>
       <c r="O16" t="n">
-        <v>1316.782668216264</v>
+        <v>1349.766146022536</v>
       </c>
       <c r="P16" t="n">
-        <v>1522.458108465876</v>
+        <v>1555.441586272148</v>
       </c>
       <c r="Q16" t="n">
-        <v>1587.986138268387</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="R16" t="n">
-        <v>1502.713419943787</v>
+        <v>1535.696897750059</v>
       </c>
       <c r="S16" t="n">
-        <v>1316.321651823697</v>
+        <v>1349.305129629969</v>
       </c>
       <c r="T16" t="n">
-        <v>1076.772912800399</v>
+        <v>1109.756390606671</v>
       </c>
       <c r="U16" t="n">
-        <v>793.9747653465236</v>
+        <v>826.9582431527954</v>
       </c>
       <c r="V16" t="n">
-        <v>520.0890202860455</v>
+        <v>553.0724980923173</v>
       </c>
       <c r="W16" t="n">
-        <v>241.0193557949199</v>
+        <v>274.0028336011917</v>
       </c>
       <c r="X16" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="Y16" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C17" t="n">
-        <v>1734.602869382415</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D17" t="n">
         <v>1734.602869382415</v>
@@ -5513,10 +5515,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5549,16 +5551,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V17" t="n">
-        <v>3697.79927886809</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="W17" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X17" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y17" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="18">
@@ -5601,10 +5603,10 @@
         <v>754.331869609911</v>
       </c>
       <c r="M18" t="n">
-        <v>754.331869609911</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N18" t="n">
-        <v>1627.989961721529</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="O18" t="n">
         <v>2139.732893541123</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>548.5451751656769</v>
+        <v>913.8008783232362</v>
       </c>
       <c r="C19" t="n">
-        <v>377.4518027273934</v>
+        <v>742.7075058849528</v>
       </c>
       <c r="D19" t="n">
-        <v>217.9571580503035</v>
+        <v>583.2128612078627</v>
       </c>
       <c r="E19" t="n">
-        <v>93.2436976906228</v>
+        <v>422.3020460761822</v>
       </c>
       <c r="F19" t="n">
-        <v>93.2436976906228</v>
+        <v>257.6709201867735</v>
       </c>
       <c r="G19" t="n">
         <v>93.2436976906228</v>
@@ -5707,16 +5709,16 @@
         <v>1339.844446857597</v>
       </c>
       <c r="V19" t="n">
-        <v>1065.958701797119</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="W19" t="n">
-        <v>786.8890373059935</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="X19" t="n">
-        <v>548.5451751656769</v>
+        <v>1101.500584717281</v>
       </c>
       <c r="Y19" t="n">
-        <v>548.5451751656769</v>
+        <v>1101.500584717281</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5734,28 @@
         <v>1692.113136769081</v>
       </c>
       <c r="D20" t="n">
-        <v>1320.262653899312</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5835,13 +5837,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="O21" t="n">
         <v>2139.732893541123</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>586.0360297861687</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="C22" t="n">
-        <v>586.0360297861687</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="D22" t="n">
-        <v>586.0360297861687</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E22" t="n">
-        <v>425.1252146544881</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F22" t="n">
-        <v>260.4940887650794</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G22" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H22" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I22" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J22" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K22" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L22" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M22" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N22" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O22" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P22" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q22" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R22" t="n">
-        <v>1537.369875986873</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S22" t="n">
-        <v>1350.978107866783</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T22" t="n">
-        <v>1111.429368843485</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U22" t="n">
-        <v>859.9217748466467</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="V22" t="n">
-        <v>586.0360297861687</v>
+        <v>3594.287766548796</v>
       </c>
       <c r="W22" t="n">
-        <v>586.0360297861687</v>
+        <v>3315.218102057671</v>
       </c>
       <c r="X22" t="n">
-        <v>586.0360297861687</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="Y22" t="n">
-        <v>586.0360297861687</v>
+        <v>3132.785987910289</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2140.463105868917</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C23" t="n">
-        <v>1730.338515182187</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D23" t="n">
-        <v>1325.874585275247</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E23" t="n">
-        <v>911.5343697921442</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F23" t="n">
-        <v>490.5039577458317</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G23" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H23" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6014,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.90380932524</v>
+        <v>4576.597211790305</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4354.390727737164</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4097.330235996674</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>3747.492681333154</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3363.732380468323</v>
       </c>
       <c r="X23" t="n">
-        <v>2951.620958585316</v>
+        <v>2963.088982637275</v>
       </c>
       <c r="Y23" t="n">
-        <v>2550.684285533406</v>
+        <v>2562.152309585365</v>
       </c>
     </row>
     <row r="24">
@@ -6121,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3645.858357686836</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="C25" t="n">
-        <v>3474.764985248552</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="D25" t="n">
-        <v>3315.270340571462</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E25" t="n">
-        <v>3154.359525439782</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F25" t="n">
         <v>3132.785987910289</v>
@@ -6172,25 +6174,25 @@
         <v>4576.912166206539</v>
       </c>
       <c r="S25" t="n">
-        <v>4576.912166206539</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T25" t="n">
-        <v>4337.363427183242</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U25" t="n">
-        <v>4337.363427183242</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="V25" t="n">
-        <v>4337.363427183242</v>
+        <v>3594.287766548796</v>
       </c>
       <c r="W25" t="n">
-        <v>4058.293762692116</v>
+        <v>3315.218102057671</v>
       </c>
       <c r="X25" t="n">
-        <v>4058.293762692116</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="Y25" t="n">
-        <v>3833.55806408088</v>
+        <v>3132.785987910289</v>
       </c>
     </row>
     <row r="26">
@@ -6206,25 +6208,25 @@
         <v>1692.113136769081</v>
       </c>
       <c r="D26" t="n">
-        <v>1692.113136769081</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E26" t="n">
-        <v>1277.772921285978</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F26" t="n">
-        <v>856.7425092396657</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G26" t="n">
-        <v>448.0142251324978</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H26" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K26" t="n">
         <v>885.5886702674165</v>
@@ -6312,13 +6314,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M27" t="n">
-        <v>93.2436976906228</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N27" t="n">
-        <v>874.0699105066985</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O27" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P27" t="n">
         <v>2139.732893541123</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>264.3370701289063</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="C28" t="n">
-        <v>93.2436976906228</v>
+        <v>104.582439399722</v>
       </c>
       <c r="D28" t="n">
-        <v>93.2436976906228</v>
+        <v>104.582439399722</v>
       </c>
       <c r="E28" t="n">
-        <v>93.2436976906228</v>
+        <v>104.582439399722</v>
       </c>
       <c r="F28" t="n">
-        <v>93.2436976906228</v>
+        <v>104.582439399722</v>
       </c>
       <c r="G28" t="n">
-        <v>93.2436976906228</v>
+        <v>104.582439399722</v>
       </c>
       <c r="H28" t="n">
-        <v>93.2436976906228</v>
+        <v>104.582439399722</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6409,25 +6411,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S28" t="n">
-        <v>1537.369875986873</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T28" t="n">
-        <v>1537.369875986873</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U28" t="n">
-        <v>1254.571728532997</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V28" t="n">
-        <v>1194.186001765628</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W28" t="n">
-        <v>915.1163372745027</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="X28" t="n">
-        <v>676.772475134186</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="Y28" t="n">
-        <v>452.0367765229507</v>
+        <v>275.6758118380055</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2549.191389976085</v>
+        <v>2128.160977929772</v>
       </c>
       <c r="C29" t="n">
-        <v>2139.066799289355</v>
+        <v>1718.036387243042</v>
       </c>
       <c r="D29" t="n">
-        <v>1734.602869382415</v>
+        <v>1313.572457336103</v>
       </c>
       <c r="E29" t="n">
-        <v>1320.262653899312</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="F29" t="n">
         <v>899.2322418529996</v>
@@ -6503,10 +6505,10 @@
         <v>3314.038978003258</v>
       </c>
       <c r="X29" t="n">
-        <v>2913.395580172211</v>
+        <v>2939.318830646172</v>
       </c>
       <c r="Y29" t="n">
-        <v>2549.191389976085</v>
+        <v>2538.382157594262</v>
       </c>
     </row>
     <row r="30">
@@ -6540,19 +6542,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M30" t="n">
-        <v>562.1177108836107</v>
+        <v>1129.033635947823</v>
       </c>
       <c r="N30" t="n">
-        <v>1435.775802995229</v>
+        <v>2002.69172805944</v>
       </c>
       <c r="O30" t="n">
         <v>2139.732893541123</v>
@@ -6595,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>418.9079176142731</v>
+        <v>749.3736558270855</v>
       </c>
       <c r="C31" t="n">
-        <v>247.8145451759896</v>
+        <v>578.280283388802</v>
       </c>
       <c r="D31" t="n">
-        <v>93.2436976906228</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="E31" t="n">
-        <v>93.2436976906228</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F31" t="n">
         <v>93.2436976906228</v>
@@ -6655,16 +6657,16 @@
         <v>1622.642594311473</v>
       </c>
       <c r="V31" t="n">
-        <v>1348.756849250995</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W31" t="n">
-        <v>1069.687184759869</v>
+        <v>1400.152922972682</v>
       </c>
       <c r="X31" t="n">
-        <v>831.3433226195527</v>
+        <v>1161.809060832365</v>
       </c>
       <c r="Y31" t="n">
-        <v>606.6076240083174</v>
+        <v>937.0733622211299</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2151.931129920876</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C32" t="n">
-        <v>1741.806539234146</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D32" t="n">
-        <v>1337.342609327206</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E32" t="n">
-        <v>923.0023938441032</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F32" t="n">
-        <v>501.9719817977906</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G32" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H32" t="n">
         <v>93.2436976906228</v>
@@ -6786,10 +6788,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M33" t="n">
-        <v>562.1177108836107</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N33" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O33" t="n">
         <v>2139.732893541123</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3303.879360348573</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K34" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L34" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M34" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N34" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O34" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P34" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>4390.520398086449</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>4228.544372554647</v>
+        <v>1579.776521841699</v>
       </c>
       <c r="U34" t="n">
-        <v>4228.544372554647</v>
+        <v>1296.978374387823</v>
       </c>
       <c r="V34" t="n">
-        <v>3954.658627494169</v>
+        <v>1023.092629327345</v>
       </c>
       <c r="W34" t="n">
-        <v>3954.658627494169</v>
+        <v>744.0229648362191</v>
       </c>
       <c r="X34" t="n">
-        <v>3716.314765353853</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="Y34" t="n">
-        <v>3491.579066742617</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C35" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D35" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E35" t="n">
-        <v>1287.649206862142</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F35" t="n">
         <v>899.2322418529996</v>
@@ -6935,10 +6937,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -6962,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T35" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U35" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V35" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W35" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X35" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y35" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="36">
@@ -7023,16 +7025,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M36" t="n">
-        <v>916.2303367455215</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N36" t="n">
-        <v>1789.888428857139</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O36" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P36" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q36" t="n">
         <v>2139.732893541123</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>410.1015439596227</v>
+        <v>749.3736558270855</v>
       </c>
       <c r="C37" t="n">
-        <v>410.1015439596227</v>
+        <v>578.280283388802</v>
       </c>
       <c r="D37" t="n">
-        <v>410.1015439596227</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="E37" t="n">
-        <v>410.1015439596227</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F37" t="n">
-        <v>410.1015439596227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
         <v>93.2436976906228</v>
@@ -7117,28 +7119,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>1111.429368843485</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U37" t="n">
-        <v>828.6312213896092</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V37" t="n">
-        <v>554.7454763291312</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W37" t="n">
-        <v>410.1015439596227</v>
+        <v>1400.152922972682</v>
       </c>
       <c r="X37" t="n">
-        <v>410.1015439596227</v>
+        <v>1161.809060832365</v>
       </c>
       <c r="Y37" t="n">
-        <v>410.1015439596227</v>
+        <v>937.0733622211299</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2128.160977929772</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C38" t="n">
-        <v>1718.036387243042</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D38" t="n">
-        <v>1313.572457336103</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E38" t="n">
-        <v>899.2322418529996</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F38" t="n">
-        <v>899.2322418529996</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G38" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H38" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7175,7 +7177,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4011.405617385543</v>
+        <v>323.8094765544416</v>
       </c>
       <c r="C40" t="n">
-        <v>3840.31224494726</v>
+        <v>323.8094765544416</v>
       </c>
       <c r="D40" t="n">
-        <v>3680.81760027017</v>
+        <v>323.8094765544416</v>
       </c>
       <c r="E40" t="n">
-        <v>3519.906785138489</v>
+        <v>323.8094765544416</v>
       </c>
       <c r="F40" t="n">
-        <v>3355.27565924908</v>
+        <v>323.8094765544416</v>
       </c>
       <c r="G40" t="n">
-        <v>3282.393443104833</v>
+        <v>323.8094765544416</v>
       </c>
       <c r="H40" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I40" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K40" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L40" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M40" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N40" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O40" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P40" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q40" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U40" t="n">
-        <v>4662.18488453114</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V40" t="n">
-        <v>4662.18488453114</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="W40" t="n">
-        <v>4662.18488453114</v>
+        <v>786.8890373059935</v>
       </c>
       <c r="X40" t="n">
-        <v>4423.841022390823</v>
+        <v>548.5451751656769</v>
       </c>
       <c r="Y40" t="n">
-        <v>4199.105323779588</v>
+        <v>323.8094765544416</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1712.810743970851</v>
+        <v>2547.518411739271</v>
       </c>
       <c r="C41" t="n">
-        <v>1302.686153284121</v>
+        <v>2137.393821052541</v>
       </c>
       <c r="D41" t="n">
-        <v>1302.686153284121</v>
+        <v>1732.929891145602</v>
       </c>
       <c r="E41" t="n">
-        <v>888.3459378010175</v>
+        <v>1318.589675662498</v>
       </c>
       <c r="F41" t="n">
-        <v>467.315525754705</v>
+        <v>897.5592636161858</v>
       </c>
       <c r="G41" t="n">
-        <v>58.5872416475372</v>
+        <v>488.830979509018</v>
       </c>
       <c r="H41" t="n">
-        <v>58.5872416475372</v>
+        <v>177.922482136736</v>
       </c>
       <c r="I41" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J41" t="n">
-        <v>58.5872416475372</v>
+        <v>345.7561909215634</v>
       </c>
       <c r="K41" t="n">
-        <v>58.5872416475372</v>
+        <v>883.9156920306029</v>
       </c>
       <c r="L41" t="n">
-        <v>771.1786414597752</v>
+        <v>1596.507091842841</v>
       </c>
       <c r="M41" t="n">
-        <v>1435.413521245312</v>
+        <v>2372.825682834595</v>
       </c>
       <c r="N41" t="n">
-        <v>1435.413521245312</v>
+        <v>3126.006699473213</v>
       </c>
       <c r="O41" t="n">
-        <v>2079.044377662417</v>
+        <v>3769.637555890318</v>
       </c>
       <c r="P41" t="n">
-        <v>2608.201075581568</v>
+        <v>4298.794253809469</v>
       </c>
       <c r="Q41" t="n">
-        <v>2929.36208237686</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="R41" t="n">
-        <v>2929.36208237686</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="S41" t="n">
-        <v>2929.36208237686</v>
+        <v>4443.254897484558</v>
       </c>
       <c r="T41" t="n">
-        <v>2929.36208237686</v>
+        <v>4443.254897484558</v>
       </c>
       <c r="U41" t="n">
-        <v>2924.611994518297</v>
+        <v>4186.194405744068</v>
       </c>
       <c r="V41" t="n">
-        <v>2924.611994518297</v>
+        <v>3836.356851080548</v>
       </c>
       <c r="W41" t="n">
-        <v>2924.611994518297</v>
+        <v>3452.596550215717</v>
       </c>
       <c r="X41" t="n">
-        <v>2523.96859668725</v>
+        <v>3051.953152384669</v>
       </c>
       <c r="Y41" t="n">
-        <v>2123.03192363534</v>
+        <v>2957.739591403761</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>737.4180835340717</v>
+        <v>770.4015613403435</v>
       </c>
       <c r="C42" t="n">
-        <v>603.4230122830173</v>
+        <v>636.4064900892893</v>
       </c>
       <c r="D42" t="n">
-        <v>486.5258545024097</v>
+        <v>519.5093323086817</v>
       </c>
       <c r="E42" t="n">
-        <v>366.0330384947378</v>
+        <v>399.0165163010097</v>
       </c>
       <c r="F42" t="n">
-        <v>257.0731586772423</v>
+        <v>290.0566364835142</v>
       </c>
       <c r="G42" t="n">
-        <v>150.083045991581</v>
+        <v>183.0665237978529</v>
       </c>
       <c r="H42" t="n">
-        <v>79.33583302729703</v>
+        <v>112.319310833569</v>
       </c>
       <c r="I42" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J42" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="K42" t="n">
-        <v>275.6382226748781</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="L42" t="n">
-        <v>275.6382226748781</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="M42" t="n">
-        <v>1000.655338063151</v>
+        <v>934.5478001483758</v>
       </c>
       <c r="N42" t="n">
-        <v>1725.672453451424</v>
+        <v>1808.205892259994</v>
       </c>
       <c r="O42" t="n">
-        <v>1725.672453451424</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="P42" t="n">
-        <v>1725.672453451424</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="Q42" t="n">
-        <v>2075.516918135407</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="R42" t="n">
-        <v>2105.076437498037</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="S42" t="n">
-        <v>1997.086427612346</v>
+        <v>2030.069905418618</v>
       </c>
       <c r="T42" t="n">
-        <v>1837.744563799354</v>
+        <v>1870.728041605626</v>
       </c>
       <c r="U42" t="n">
-        <v>1640.393752937573</v>
+        <v>1673.377230743845</v>
       </c>
       <c r="V42" t="n">
-        <v>1426.682225930607</v>
+        <v>1459.665703736879</v>
       </c>
       <c r="W42" t="n">
-        <v>1213.449057666935</v>
+        <v>1246.432535473207</v>
       </c>
       <c r="X42" t="n">
-        <v>1037.123075805828</v>
+        <v>1070.1065536121</v>
       </c>
       <c r="Y42" t="n">
-        <v>877.7211161696583</v>
+        <v>910.7045939759302</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>389.1752587629107</v>
+        <v>256.2018453432179</v>
       </c>
       <c r="C43" t="n">
-        <v>218.0818863246272</v>
+        <v>256.2018453432179</v>
       </c>
       <c r="D43" t="n">
-        <v>58.5872416475372</v>
+        <v>256.2018453432179</v>
       </c>
       <c r="E43" t="n">
-        <v>58.5872416475372</v>
+        <v>256.2018453432179</v>
       </c>
       <c r="F43" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="G43" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="H43" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I43" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J43" t="n">
-        <v>72.66979105274773</v>
+        <v>105.6532688590197</v>
       </c>
       <c r="K43" t="n">
-        <v>227.2221187749857</v>
+        <v>260.2055965812576</v>
       </c>
       <c r="L43" t="n">
-        <v>487.1192190550462</v>
+        <v>520.1026968613182</v>
       </c>
       <c r="M43" t="n">
-        <v>776.3832754955395</v>
+        <v>809.3667533018115</v>
       </c>
       <c r="N43" t="n">
-        <v>1057.22205788979</v>
+        <v>1090.205535696062</v>
       </c>
       <c r="O43" t="n">
-        <v>1316.782668216264</v>
+        <v>1349.766146022536</v>
       </c>
       <c r="P43" t="n">
-        <v>1522.458108465876</v>
+        <v>1555.441586272148</v>
       </c>
       <c r="Q43" t="n">
-        <v>1587.986138268387</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="R43" t="n">
-        <v>1587.986138268387</v>
+        <v>1535.696897750059</v>
       </c>
       <c r="S43" t="n">
-        <v>1587.986138268387</v>
+        <v>1349.305129629969</v>
       </c>
       <c r="T43" t="n">
-        <v>1348.437399245089</v>
+        <v>1349.305129629969</v>
       </c>
       <c r="U43" t="n">
-        <v>1348.437399245089</v>
+        <v>1186.05077697994</v>
       </c>
       <c r="V43" t="n">
-        <v>1319.024190399633</v>
+        <v>1186.05077697994</v>
       </c>
       <c r="W43" t="n">
-        <v>1039.954525908507</v>
+        <v>906.9811124888142</v>
       </c>
       <c r="X43" t="n">
-        <v>801.6106637681904</v>
+        <v>668.6372503484976</v>
       </c>
       <c r="Y43" t="n">
-        <v>576.8749651569551</v>
+        <v>443.9015517372623</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>369.4149253015327</v>
+        <v>2376.076374874169</v>
       </c>
       <c r="C44" t="n">
-        <v>58.5872416475372</v>
+        <v>1965.951784187439</v>
       </c>
       <c r="D44" t="n">
-        <v>58.5872416475372</v>
+        <v>1561.4878542805</v>
       </c>
       <c r="E44" t="n">
-        <v>58.5872416475372</v>
+        <v>1147.147638797397</v>
       </c>
       <c r="F44" t="n">
-        <v>58.5872416475372</v>
+        <v>726.1172267510842</v>
       </c>
       <c r="G44" t="n">
-        <v>58.5872416475372</v>
+        <v>317.3889426439164</v>
       </c>
       <c r="H44" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I44" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J44" t="n">
-        <v>312.7727131152915</v>
+        <v>345.7561909215634</v>
       </c>
       <c r="K44" t="n">
-        <v>312.7727131152915</v>
+        <v>883.9156920306029</v>
       </c>
       <c r="L44" t="n">
-        <v>312.7727131152915</v>
+        <v>1596.507091842841</v>
       </c>
       <c r="M44" t="n">
-        <v>1037.789828503564</v>
+        <v>2372.825682834595</v>
       </c>
       <c r="N44" t="n">
-        <v>1762.806943891837</v>
+        <v>3126.006699473213</v>
       </c>
       <c r="O44" t="n">
-        <v>2406.437800308942</v>
+        <v>3769.637555890318</v>
       </c>
       <c r="P44" t="n">
-        <v>2888.805436687295</v>
+        <v>4298.794253809469</v>
       </c>
       <c r="Q44" t="n">
-        <v>2888.805436687295</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="R44" t="n">
-        <v>2929.36208237686</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="S44" t="n">
-        <v>2794.081007170961</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="T44" t="n">
-        <v>2571.87452311782</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="U44" t="n">
-        <v>2314.81403137733</v>
+        <v>4321.475480949967</v>
       </c>
       <c r="V44" t="n">
-        <v>1964.976476713811</v>
+        <v>3971.637926286448</v>
       </c>
       <c r="W44" t="n">
-        <v>1581.216175848979</v>
+        <v>3587.877625421616</v>
       </c>
       <c r="X44" t="n">
-        <v>1180.572778017932</v>
+        <v>3187.234227590569</v>
       </c>
       <c r="Y44" t="n">
-        <v>779.6361049660221</v>
+        <v>2786.297554538659</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>737.4180835340717</v>
+        <v>770.4015613403435</v>
       </c>
       <c r="C45" t="n">
-        <v>603.4230122830173</v>
+        <v>636.4064900892893</v>
       </c>
       <c r="D45" t="n">
-        <v>486.5258545024097</v>
+        <v>519.5093323086817</v>
       </c>
       <c r="E45" t="n">
-        <v>366.0330384947378</v>
+        <v>399.0165163010097</v>
       </c>
       <c r="F45" t="n">
-        <v>257.0731586772423</v>
+        <v>290.0566364835142</v>
       </c>
       <c r="G45" t="n">
-        <v>150.083045991581</v>
+        <v>183.0665237978529</v>
       </c>
       <c r="H45" t="n">
-        <v>79.33583302729703</v>
+        <v>112.319310833569</v>
       </c>
       <c r="I45" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J45" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="K45" t="n">
-        <v>514.3934979128359</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="L45" t="n">
-        <v>514.3934979128359</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="M45" t="n">
-        <v>818.3534296212343</v>
+        <v>934.5478001483758</v>
       </c>
       <c r="N45" t="n">
-        <v>1543.370545009507</v>
+        <v>1808.205892259994</v>
       </c>
       <c r="O45" t="n">
-        <v>1543.370545009507</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="P45" t="n">
-        <v>2105.076437498037</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="Q45" t="n">
-        <v>2105.076437498037</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="R45" t="n">
-        <v>2105.076437498037</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="S45" t="n">
-        <v>1997.086427612346</v>
+        <v>2030.069905418618</v>
       </c>
       <c r="T45" t="n">
-        <v>1837.744563799354</v>
+        <v>1870.728041605626</v>
       </c>
       <c r="U45" t="n">
-        <v>1640.393752937573</v>
+        <v>1673.377230743845</v>
       </c>
       <c r="V45" t="n">
-        <v>1426.682225930607</v>
+        <v>1459.665703736879</v>
       </c>
       <c r="W45" t="n">
-        <v>1213.449057666935</v>
+        <v>1246.432535473207</v>
       </c>
       <c r="X45" t="n">
-        <v>1037.123075805828</v>
+        <v>1070.1065536121</v>
       </c>
       <c r="Y45" t="n">
-        <v>877.7211161696583</v>
+        <v>910.7045939759302</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>550.0860738945912</v>
+        <v>1180.904569754946</v>
       </c>
       <c r="C46" t="n">
-        <v>378.9927014563077</v>
+        <v>1009.811197316662</v>
       </c>
       <c r="D46" t="n">
-        <v>219.4980567792177</v>
+        <v>850.3165526395721</v>
       </c>
       <c r="E46" t="n">
-        <v>58.5872416475372</v>
+        <v>689.4057375078917</v>
       </c>
       <c r="F46" t="n">
-        <v>58.5872416475372</v>
+        <v>524.7746116184829</v>
       </c>
       <c r="G46" t="n">
-        <v>58.5872416475372</v>
+        <v>357.5242205440263</v>
       </c>
       <c r="H46" t="n">
-        <v>58.5872416475372</v>
+        <v>207.916765349483</v>
       </c>
       <c r="I46" t="n">
-        <v>58.5872416475372</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J46" t="n">
-        <v>72.66979105274773</v>
+        <v>105.6532688590197</v>
       </c>
       <c r="K46" t="n">
-        <v>227.2221187749857</v>
+        <v>260.2055965812576</v>
       </c>
       <c r="L46" t="n">
-        <v>487.1192190550462</v>
+        <v>520.1026968613182</v>
       </c>
       <c r="M46" t="n">
-        <v>776.3832754955395</v>
+        <v>809.3667533018115</v>
       </c>
       <c r="N46" t="n">
-        <v>1057.22205788979</v>
+        <v>1090.205535696062</v>
       </c>
       <c r="O46" t="n">
-        <v>1316.782668216264</v>
+        <v>1349.766146022536</v>
       </c>
       <c r="P46" t="n">
-        <v>1522.458108465876</v>
+        <v>1555.441586272148</v>
       </c>
       <c r="Q46" t="n">
-        <v>1587.986138268387</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="R46" t="n">
-        <v>1587.986138268387</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="S46" t="n">
-        <v>1587.986138268387</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="T46" t="n">
-        <v>1587.986138268387</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="U46" t="n">
-        <v>1587.986138268387</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="V46" t="n">
-        <v>1314.100393207909</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="W46" t="n">
-        <v>1200.865341040188</v>
+        <v>1341.899951583533</v>
       </c>
       <c r="X46" t="n">
-        <v>962.5214788998709</v>
+        <v>1341.899951583533</v>
       </c>
       <c r="Y46" t="n">
-        <v>737.7857802886356</v>
+        <v>1341.899951583533</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>632.7318453389136</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>815.2746908024792</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>416.179462999193</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>825.2528113508343</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>594.6194560602019</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
         <v>87.31214281472352</v>
@@ -8055,7 +8057,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
         <v>55.82578278461539</v>
@@ -8064,19 +8066,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>175.2980289959033</v>
       </c>
       <c r="N3" t="n">
-        <v>617.2881771218433</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
-        <v>768.8192472281761</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>621.6393243851574</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
         <v>88.85829947169823</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>632.7318453389136</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>644.9042478925577</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>743.321953824879</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>628.1510783507341</v>
+        <v>594.6194560602019</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,28 +8297,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>789.9048043326325</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>452.327345909982</v>
+        <v>421.0562344946766</v>
       </c>
       <c r="O6" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>247.2726194786469</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>158.8194175469794</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,28 +8531,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>785.533913987965</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>384.022693091224</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>282.1764805785802</v>
       </c>
       <c r="Q9" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
         <v>59.00019910540541</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>247.2726194786469</v>
       </c>
       <c r="K11" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>117.8531087696411</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
         <v>128.2784515920617</v>
@@ -8769,19 +8771,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>723.8803540323523</v>
+        <v>213.0023571290847</v>
       </c>
       <c r="M12" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>785.533913987965</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
-        <v>157.4262426913222</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
         <v>621.6393243851574</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>97.52733682206481</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>372.6011972082306</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,16 +9011,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>679.867038877852</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>789.9048043326325</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>574.6635313430239</v>
       </c>
       <c r="P15" t="n">
         <v>54.25963500280375</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
         <v>632.7318453389136</v>
@@ -9249,13 +9251,13 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>574.6635313430244</v>
+        <v>605.6544519663084</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K20" t="n">
         <v>632.7318453389136</v>
@@ -9483,16 +9485,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>605.6544519663084</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -9960,16 +9962,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N27" t="n">
-        <v>841.9067396726143</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P27" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
@@ -10188,7 +10190,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>55.82578278461539</v>
@@ -10197,13 +10199,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>531.1743980747688</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N30" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>196.176898678467</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
@@ -10434,13 +10436,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>531.1743980747688</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N33" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
         <v>632.7318453389136</v>
@@ -10671,19 +10673,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>888.8639191474061</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N36" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O36" t="n">
-        <v>57.751479</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P36" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10823,7 +10825,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L38" t="n">
         <v>815.2746908024792</v>
@@ -10844,7 +10846,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>764.2345474727388</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
         <v>743.321953824879</v>
@@ -11078,7 +11080,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681339</v>
+        <v>372.6011972082306</v>
       </c>
       <c r="R41" t="n">
         <v>87.31214281472352</v>
@@ -11139,28 +11141,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>275.0691979637476</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>789.9048043326325</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N42" t="n">
-        <v>785.533913987965</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O42" t="n">
-        <v>57.751479</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P42" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,28 +11299,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>580.8894000266952</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>372.6011972082306</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,22 +11378,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>364.5945177873048</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N45" t="n">
-        <v>785.533913987965</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O45" t="n">
-        <v>57.751479</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P45" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
         <v>56.69261850483872</v>
@@ -23258,19 +23260,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>96.92159444864063</v>
+        <v>130.352642708244</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>55.35263051300461</v>
+        <v>55.35263051300473</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23507,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>85.48824505609757</v>
@@ -23549,16 +23551,16 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>84.23937144035295</v>
       </c>
       <c r="V14" t="n">
-        <v>320.7006154821275</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300461</v>
+        <v>55.35263051300473</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -23732,10 +23734,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>42.06483528720065</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23789,10 +23791,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>62.56142803888758</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,13 +23898,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>35.83538122427987</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>2.794936892522884</v>
       </c>
       <c r="H19" t="n">
         <v>148.1113806425979</v>
@@ -23947,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23972,22 +23974,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>32.28731256679833</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24133,13 +24135,13 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
         <v>148.1113806425979</v>
@@ -24181,16 +24183,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>30.97764792246718</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>55.35263051300575</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -24218,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>49.19646844041357</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24269,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>37.84312462897429</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24361,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>141.627012476317</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
         <v>165.577887163712</v>
@@ -24412,25 +24414,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>55.35263051300575</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24446,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24455,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>356.995880838973</v>
       </c>
       <c r="H26" t="n">
-        <v>42.06483528720054</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>103.9572311447089</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,25 +24651,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>211.3650181101785</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24689,7 +24691,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24743,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>25.66401796922162</v>
       </c>
       <c r="Y29" t="n">
-        <v>36.36515802722602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24841,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>4.874559219806002</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.577887163712</v>
@@ -24895,10 +24897,10 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>56.01419322081091</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>49.1964684404137</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24929,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>356.995880838973</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>85.48824505609757</v>
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
@@ -25120,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>76.79698635658144</v>
+        <v>194.7158398879884</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25160,10 +25162,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>32.28731256679839</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25202,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25309,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
         <v>115.1825854367171</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>133.081474800401</v>
+        <v>56.01419322081091</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>25.66401796922133</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25400,16 +25402,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>356.995880838973</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>93.42449318090684</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>35.03384500413439</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,13 +25605,13 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25631,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>249.7872998431077</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>303.6558809502911</v>
       </c>
     </row>
     <row r="42">
@@ -25786,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.577887163712</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>118.3483568558082</v>
       </c>
       <c r="V43" t="n">
-        <v>242.0278108528712</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25865,22 +25867,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>98.30393796240708</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>84.23937144035304</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -25913,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>26.43728131980203</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,16 +26082,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>164.1762662001698</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>771886.5277878651</v>
+        <v>768572.7329730997</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>771886.5277878651</v>
+        <v>768572.7329730997</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>771886.5277878651</v>
+        <v>778383.9397492582</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>534923.8093194903</v>
+        <v>687887.8309381946</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>534923.8093194903</v>
+        <v>687887.8309381948</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>695646.4269445544</v>
+        <v>695646.4269445542</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>695646.4269445543</v>
+        <v>695646.4269445542</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>695646.4269445541</v>
+        <v>695646.4269445542</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>695646.4269445542</v>
+        <v>695646.4269445543</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>695646.4269445542</v>
+        <v>695646.4269445543</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>534923.8093194903</v>
+        <v>687887.8309381948</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>534923.8093194905</v>
+        <v>687887.8309381946</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390917.7432778968</v>
+        <v>390917.7432778967</v>
       </c>
       <c r="C2" t="n">
-        <v>390917.7432778968</v>
+        <v>390917.7432778966</v>
       </c>
       <c r="D2" t="n">
-        <v>390917.7432778967</v>
+        <v>390917.7432778969</v>
       </c>
       <c r="E2" t="n">
-        <v>267285.0205987446</v>
+        <v>343702.3821590812</v>
       </c>
       <c r="F2" t="n">
-        <v>267285.0205987446</v>
+        <v>343702.3821590812</v>
       </c>
       <c r="G2" t="n">
-        <v>347578.4010421129</v>
+        <v>347578.4010421128</v>
       </c>
       <c r="H2" t="n">
-        <v>347578.401042113</v>
+        <v>347578.4010421128</v>
       </c>
       <c r="I2" t="n">
         <v>347578.4010421129</v>
       </c>
       <c r="J2" t="n">
+        <v>347578.401042113</v>
+      </c>
+      <c r="K2" t="n">
         <v>347578.4010421128</v>
       </c>
-      <c r="K2" t="n">
-        <v>347578.4010421127</v>
-      </c>
       <c r="L2" t="n">
-        <v>347578.4010421128</v>
+        <v>347578.401042113</v>
       </c>
       <c r="M2" t="n">
-        <v>347578.4010421128</v>
+        <v>347578.4010421129</v>
       </c>
       <c r="N2" t="n">
-        <v>347578.4010421127</v>
+        <v>347578.4010421129</v>
       </c>
       <c r="O2" t="n">
-        <v>267285.0205987447</v>
+        <v>343702.3821590812</v>
       </c>
       <c r="P2" t="n">
-        <v>267285.0205987447</v>
+        <v>343702.3821590812</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>245424.1522830951</v>
+        <v>174955.5098931141</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>193389.0504351682</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118735.1844321139</v>
+        <v>5731.72800046337</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>191612.5031703528</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>157566.97087753</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>140769.9845623025</v>
+        <v>174432.0962319951</v>
       </c>
       <c r="C4" t="n">
-        <v>140769.9845623025</v>
+        <v>174432.0962319951</v>
       </c>
       <c r="D4" t="n">
-        <v>140769.9845623025</v>
+        <v>74768.12891515472</v>
       </c>
       <c r="E4" t="n">
-        <v>23160.83861544975</v>
+        <v>29853.17293568463</v>
       </c>
       <c r="F4" t="n">
-        <v>23160.83861544975</v>
+        <v>29853.17293568462</v>
       </c>
       <c r="G4" t="n">
         <v>30192.61954398331</v>
@@ -26454,10 +26456,10 @@
         <v>30192.61954398331</v>
       </c>
       <c r="O4" t="n">
-        <v>23160.83861544975</v>
+        <v>29853.17293568463</v>
       </c>
       <c r="P4" t="n">
-        <v>23160.83861544975</v>
+        <v>29853.17293568463</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78153.90365212827</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
-        <v>78153.90365212827</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>78153.90365212827</v>
+        <v>103221.3467848949</v>
       </c>
       <c r="E5" t="n">
-        <v>44526.30365212827</v>
+        <v>69593.74678489495</v>
       </c>
       <c r="F5" t="n">
-        <v>44526.30365212827</v>
+        <v>69593.74678489495</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>44526.30365212827</v>
+        <v>69593.74678489495</v>
       </c>
       <c r="P5" t="n">
-        <v>44526.30365212827</v>
+        <v>69593.74678489495</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-73430.29721962902</v>
+        <v>-23838.92792570993</v>
       </c>
       <c r="C6" t="n">
-        <v>171993.8550634661</v>
+        <v>151116.581967404</v>
       </c>
       <c r="D6" t="n">
-        <v>171993.8550634659</v>
+        <v>19539.21714267906</v>
       </c>
       <c r="E6" t="n">
-        <v>199597.8783311666</v>
+        <v>244255.4624385016</v>
       </c>
       <c r="F6" t="n">
-        <v>199597.8783311666</v>
+        <v>244255.4624385017</v>
       </c>
       <c r="G6" t="n">
-        <v>127785.3868211423</v>
+        <v>240788.8432527928</v>
       </c>
       <c r="H6" t="n">
-        <v>246520.5712532564</v>
+        <v>246520.5712532562</v>
       </c>
       <c r="I6" t="n">
         <v>246520.5712532563</v>
       </c>
       <c r="J6" t="n">
-        <v>54908.06808290335</v>
+        <v>109925.7704473614</v>
       </c>
       <c r="K6" t="n">
-        <v>246520.5712532561</v>
+        <v>246520.5712532562</v>
       </c>
       <c r="L6" t="n">
-        <v>246520.5712532562</v>
+        <v>88953.60037572637</v>
       </c>
       <c r="M6" t="n">
-        <v>246520.5712532562</v>
+        <v>246520.5712532563</v>
       </c>
       <c r="N6" t="n">
-        <v>246520.5712532561</v>
+        <v>246520.5712532563</v>
       </c>
       <c r="O6" t="n">
-        <v>199597.8783311667</v>
+        <v>244255.4624385016</v>
       </c>
       <c r="P6" t="n">
-        <v>199597.8783311667</v>
+        <v>244255.4624385016</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>732.340520594215</v>
+        <v>1144.633993172614</v>
       </c>
       <c r="E4" t="n">
-        <v>732.340520594215</v>
+        <v>1144.633993172614</v>
       </c>
       <c r="F4" t="n">
-        <v>732.340520594215</v>
+        <v>1144.633993172614</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>732.340520594215</v>
+        <v>1144.633993172614</v>
       </c>
       <c r="P4" t="n">
-        <v>732.340520594215</v>
+        <v>1144.633993172614</v>
       </c>
     </row>
   </sheetData>
@@ -27009,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>622.5704228025888</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>433.2057005385699</v>
+        <v>20.91222796017064</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>622.5704228025886</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27255,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>622.5704228025888</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>433.2057005385699</v>
+        <v>20.91222796017064</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,22 +27381,22 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>372.2900950859963</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>234.9848782552364</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>33.43810748553913</v>
       </c>
       <c r="E4" t="n">
-        <v>3.669403393789707</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
         <v>162.9848146305146</v>
@@ -27552,7 +27554,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27619,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>152.1234863376399</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="E5" t="n">
-        <v>321.7019678814895</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
@@ -27673,10 +27675,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
@@ -27774,16 +27776,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>165.577887163712</v>
@@ -27792,7 +27794,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>133.9174540021652</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>262.0661100109212</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>162.1149845455577</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>169.7276164964508</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>126.9450269688242</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
         <v>159.3017069803637</v>
@@ -28023,10 +28025,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
         <v>115.1825854367171</v>
@@ -28056,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>246.9714305702967</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>543.5954556656965</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
-        <v>719.7892927396343</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>322.8892385421476</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34784,19 +34786,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>117.7337452574859</v>
       </c>
       <c r="N3" t="n">
-        <v>564.0947837280934</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
-        <v>711.0677682281761</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
-        <v>567.3796893823536</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
         <v>29.85810036629282</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>543.5954556656965</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>549.4188498297128</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
-        <v>650.1321781990958</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>534.50171506985</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,28 +35017,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
-        <v>399.133952516232</v>
+        <v>367.8628411009266</v>
       </c>
       <c r="O6" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>173.9490281453389</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>65.17005426609525</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>326.271214091224</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>227.9168455757764</v>
       </c>
       <c r="Q9" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>173.9490281453389</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>24.20374548875697</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
         <v>40.9663087773382</v>
@@ -35489,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>667.7658302215033</v>
+        <v>156.8878333182357</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>732.340520594215</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
-        <v>99.67476369132223</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>567.3796893823536</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>24.20374548875686</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>282.5673928090785</v>
       </c>
       <c r="R14" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,16 +35731,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>623.7525150670029</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>516.9120523430239</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
         <v>543.5954556656965</v>
@@ -35969,13 +35971,13 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>516.9120523430244</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K20" t="n">
         <v>543.5954556656965</v>
@@ -36203,16 +36205,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36680,16 +36682,16 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N27" t="n">
-        <v>788.7133462788644</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P27" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36917,13 +36919,13 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N30" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>138.425419678467</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37154,13 +37156,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N33" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
         <v>543.5954556656965</v>
@@ -37391,19 +37393,19 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>831.2996354089887</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N36" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L38" t="n">
         <v>719.7892927396343</v>
@@ -37564,7 +37566,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37777,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
-        <v>670.9443230156933</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
         <v>650.1321781990958</v>
@@ -37798,7 +37800,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>324.4050573689818</v>
+        <v>282.5673928090785</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,28 +37861,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>219.2434151791322</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>732.340520594215</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N42" t="n">
-        <v>732.340520594215</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>487.240036745811</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>282.5673928090785</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>307.0302340488873</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N45" t="n">
-        <v>732.340520594215</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P45" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1402253.940655965</v>
+        <v>1400927.00303318</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2231567.426506397</v>
+        <v>2231567.426506399</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
         <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>169.6561230108597</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>219.5154788945561</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>124.4615907447799</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>60.61033176505134</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
         <v>406.0233447798626</v>
@@ -907,13 +907,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>264.6966215882094</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>74.00536571764091</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>50.6103964367236</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>106.9706214097031</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
@@ -1122,7 +1122,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>84.76227032663424</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>77.18876577706861</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
@@ -1293,13 +1293,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>42.43741174507651</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>106.9706214097034</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
@@ -1381,10 +1381,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>286.4674652176053</v>
       </c>
       <c r="G11" t="n">
-        <v>274.2883585578521</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
@@ -1587,16 +1587,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>76.43104772188485</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059087</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>170.250515382732</v>
+        <v>135.4905879262807</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.5049693465935899</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059087</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>405.3625188251735</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
@@ -1861,7 +1861,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>85.48824505609757</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>219.9844192126098</v>
@@ -1903,10 +1903,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>283.7777510779965</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>162.7829502711891</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="20">
@@ -2095,10 +2095,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>117.4784251967216</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>76.43104772188485</v>
       </c>
       <c r="T22" t="n">
         <v>237.1532516330649</v>
@@ -2298,16 +2298,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>180.6077930059077</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2335,7 +2335,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.73179601342657</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>13.88126300749902</v>
       </c>
       <c r="X25" t="n">
-        <v>180.6077930059077</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>47.64512042712314</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
         <v>307.7994123985592</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>11.22535429200825</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
@@ -2803,7 +2803,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
         <v>404.6410012660961</v>
@@ -2857,7 +2857,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>370.9729458835154</v>
+        <v>360.2718058255109</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -2964,13 +2964,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>220.2647746254034</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>213.4252167301215</v>
       </c>
     </row>
     <row r="32">
@@ -3043,7 +3043,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>47.64512042712314</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>50.70380769547617</v>
       </c>
       <c r="T34" t="n">
-        <v>42.43741174507654</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
@@ -3255,7 +3255,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.3277174905203</v>
       </c>
       <c r="U35" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>220.2647746254034</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
@@ -3517,13 +3517,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>47.64512042712314</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>218.0291057078766</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>113.0775356384635</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>81.56312795822599</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
         <v>279.9701659793371</v>
@@ -3723,7 +3723,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
@@ -3745,7 +3745,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>366.9082367671631</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
@@ -3754,13 +3754,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
         <v>254.489886823085</v>
@@ -3808,7 +3808,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>93.27142537109972</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U43" t="n">
-        <v>161.6218091235289</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
@@ -3988,16 +3988,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>299.2987756307933</v>
       </c>
       <c r="G44" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>223.5600409582061</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
         <v>254.489886823085</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>159.3854280103019</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>116.916403504665</v>
       </c>
     </row>
   </sheetData>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>333.2842014970884</v>
+        <v>1603.280207151329</v>
       </c>
       <c r="C2" t="n">
-        <v>327.2000148507626</v>
+        <v>1193.155616464599</v>
       </c>
       <c r="D2" t="n">
-        <v>326.7764889842272</v>
+        <v>1192.732090598063</v>
       </c>
       <c r="E2" t="n">
-        <v>316.476677541528</v>
+        <v>778.3918751149602</v>
       </c>
       <c r="F2" t="n">
-        <v>299.4866695356196</v>
+        <v>357.3614630686478</v>
       </c>
       <c r="G2" t="n">
-        <v>128.1168483125289</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L2" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M2" t="n">
-        <v>558.6080202959273</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N2" t="n">
-        <v>1075.450954962253</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O2" t="n">
-        <v>1592.293889628578</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P2" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q2" t="n">
         <v>2088.254281480102</v>
@@ -4357,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>1473.706230480572</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V2" t="n">
-        <v>1123.868675817053</v>
+        <v>1609.460982775414</v>
       </c>
       <c r="W2" t="n">
-        <v>740.1083749522213</v>
+        <v>1609.460982775414</v>
       </c>
       <c r="X2" t="n">
-        <v>339.4649771211738</v>
+        <v>1609.460982775414</v>
       </c>
       <c r="Y2" t="n">
-        <v>339.4649771211738</v>
+        <v>1609.460982775414</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161367</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650825</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844749</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768029</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593075</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G3" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="L3" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="M3" t="n">
-        <v>158.3214934345131</v>
+        <v>751.4208778585607</v>
       </c>
       <c r="N3" t="n">
-        <v>675.1644281008383</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="O3" t="n">
-        <v>1192.007362767164</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="P3" t="n">
         <v>1708.850297433489</v>
@@ -4454,7 +4454,7 @@
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517234</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>454.9232824936402</v>
+        <v>737.6316838607604</v>
       </c>
       <c r="C4" t="n">
-        <v>283.8299100553567</v>
+        <v>737.6316838607604</v>
       </c>
       <c r="D4" t="n">
-        <v>158.1111315252759</v>
+        <v>578.1370391836704</v>
       </c>
       <c r="E4" t="n">
-        <v>158.1111315252759</v>
+        <v>417.2262240519898</v>
       </c>
       <c r="F4" t="n">
-        <v>158.1111315252759</v>
+        <v>252.5950981625811</v>
       </c>
       <c r="G4" t="n">
-        <v>158.1111315252759</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1384.772214130362</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1384.772214130362</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="U4" t="n">
-        <v>1384.772214130362</v>
+        <v>1016.701348351886</v>
       </c>
       <c r="V4" t="n">
-        <v>1384.772214130362</v>
+        <v>1016.701348351886</v>
       </c>
       <c r="W4" t="n">
-        <v>1105.702549639236</v>
+        <v>737.6316838607604</v>
       </c>
       <c r="X4" t="n">
-        <v>867.3586874989198</v>
+        <v>737.6316838607604</v>
       </c>
       <c r="Y4" t="n">
-        <v>642.6229888876845</v>
+        <v>737.6316838607604</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1542.752026609714</v>
+        <v>2007.320611191733</v>
       </c>
       <c r="C5" t="n">
-        <v>1132.627435922984</v>
+        <v>1597.196020505003</v>
       </c>
       <c r="D5" t="n">
-        <v>728.1635060160443</v>
+        <v>1192.732090598064</v>
       </c>
       <c r="E5" t="n">
-        <v>313.823290532941</v>
+        <v>778.3918751149603</v>
       </c>
       <c r="F5" t="n">
-        <v>46.45296569636579</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H5" t="n">
         <v>41.76508562960205</v>
@@ -4573,19 +4573,19 @@
         <v>558.6080202959273</v>
       </c>
       <c r="L5" t="n">
-        <v>1075.450954962253</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="M5" t="n">
-        <v>1075.450954962253</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="N5" t="n">
-        <v>1592.293889628578</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O5" t="n">
-        <v>1592.293889628578</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P5" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q5" t="n">
         <v>2088.254281480102</v>
@@ -4594,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>1952.973206274203</v>
+        <v>2013.501386815818</v>
       </c>
       <c r="V5" t="n">
-        <v>1952.973206274203</v>
+        <v>2013.501386815818</v>
       </c>
       <c r="W5" t="n">
-        <v>1952.973206274203</v>
+        <v>2013.501386815818</v>
       </c>
       <c r="X5" t="n">
-        <v>1952.973206274203</v>
+        <v>2013.501386815818</v>
       </c>
       <c r="Y5" t="n">
-        <v>1952.973206274203</v>
+        <v>2013.501386815818</v>
       </c>
     </row>
     <row r="6">
@@ -4649,25 +4649,25 @@
         <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>690.384199457534</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L6" t="n">
-        <v>690.384199457534</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="M6" t="n">
-        <v>1207.227134123859</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="N6" t="n">
-        <v>1571.411346813777</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="O6" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>206.3962115190108</v>
+        <v>533.263917876656</v>
       </c>
       <c r="C7" t="n">
-        <v>206.3962115190108</v>
+        <v>362.1705454383725</v>
       </c>
       <c r="D7" t="n">
-        <v>206.3962115190108</v>
+        <v>202.6759007612826</v>
       </c>
       <c r="E7" t="n">
-        <v>206.3962115190108</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
         <v>41.76508562960205</v>
@@ -4752,25 +4752,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1520.042369688105</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1280.493630664807</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>997.6954832109311</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>723.8097381504531</v>
+        <v>1463.112849513378</v>
       </c>
       <c r="W7" t="n">
-        <v>444.7400736593274</v>
+        <v>1184.043185022252</v>
       </c>
       <c r="X7" t="n">
-        <v>206.3962115190108</v>
+        <v>945.6993228819357</v>
       </c>
       <c r="Y7" t="n">
-        <v>206.3962115190108</v>
+        <v>720.9636242707004</v>
       </c>
     </row>
     <row r="8">
@@ -4831,13 +4831,13 @@
         <v>4578.535972690457</v>
       </c>
       <c r="S8" t="n">
-        <v>4578.535972690457</v>
+        <v>4443.254897484558</v>
       </c>
       <c r="T8" t="n">
-        <v>4578.535972690457</v>
+        <v>4221.048413431417</v>
       </c>
       <c r="U8" t="n">
-        <v>4492.917517815069</v>
+        <v>4221.048413431417</v>
       </c>
       <c r="V8" t="n">
         <v>4143.079963151549</v>
@@ -4883,28 +4883,28 @@
         <v>91.57071945380915</v>
       </c>
       <c r="J9" t="n">
-        <v>91.57071945380915</v>
+        <v>284.3835770164424</v>
       </c>
       <c r="K9" t="n">
-        <v>547.3769757191078</v>
+        <v>740.1898332817411</v>
       </c>
       <c r="L9" t="n">
-        <v>1208.465147638396</v>
+        <v>1196.950038769166</v>
       </c>
       <c r="M9" t="n">
-        <v>1208.465147638396</v>
+        <v>1196.950038769166</v>
       </c>
       <c r="N9" t="n">
-        <v>1208.465147638396</v>
+        <v>1196.950038769166</v>
       </c>
       <c r="O9" t="n">
-        <v>1912.42223818429</v>
+        <v>1196.950038769166</v>
       </c>
       <c r="P9" t="n">
-        <v>2138.059915304309</v>
+        <v>1758.655931257696</v>
       </c>
       <c r="Q9" t="n">
-        <v>2138.059915304309</v>
+        <v>2108.500395941679</v>
       </c>
       <c r="R9" t="n">
         <v>2138.059915304309</v>
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>134.4367919235834</v>
+        <v>583.0695517008631</v>
       </c>
       <c r="C10" t="n">
-        <v>91.57071945380915</v>
+        <v>411.9761792625796</v>
       </c>
       <c r="D10" t="n">
-        <v>91.57071945380915</v>
+        <v>252.4815345854897</v>
       </c>
       <c r="E10" t="n">
         <v>91.57071945380915</v>
@@ -4995,19 +4995,19 @@
         <v>1620.969616074659</v>
       </c>
       <c r="U10" t="n">
-        <v>1338.171468620783</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="V10" t="n">
-        <v>1064.285723560305</v>
+        <v>1512.918483337585</v>
       </c>
       <c r="W10" t="n">
-        <v>785.2160590691797</v>
+        <v>1233.848818846459</v>
       </c>
       <c r="X10" t="n">
-        <v>546.8721969288631</v>
+        <v>995.5049567061428</v>
       </c>
       <c r="Y10" t="n">
-        <v>322.1364983176278</v>
+        <v>770.7692580949075</v>
       </c>
     </row>
     <row r="11">
@@ -5029,7 +5029,7 @@
         <v>789.6600795383561</v>
       </c>
       <c r="F11" t="n">
-        <v>368.6296674920436</v>
+        <v>500.299003560977</v>
       </c>
       <c r="G11" t="n">
         <v>91.57071945380915</v>
@@ -5041,28 +5041,28 @@
         <v>91.57071945380915</v>
       </c>
       <c r="J11" t="n">
-        <v>263.7802573176947</v>
+        <v>345.7561909215634</v>
       </c>
       <c r="K11" t="n">
-        <v>801.9397584267342</v>
+        <v>883.9156920306029</v>
       </c>
       <c r="L11" t="n">
-        <v>1514.531158238972</v>
+        <v>1596.507091842841</v>
       </c>
       <c r="M11" t="n">
-        <v>2290.849749230726</v>
+        <v>2372.825682834595</v>
       </c>
       <c r="N11" t="n">
-        <v>3044.030765869344</v>
+        <v>3126.006699473213</v>
       </c>
       <c r="O11" t="n">
-        <v>3687.661622286449</v>
+        <v>3769.637555890318</v>
       </c>
       <c r="P11" t="n">
-        <v>4216.818320205601</v>
+        <v>4298.794253809469</v>
       </c>
       <c r="Q11" t="n">
-        <v>4537.979327000892</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="R11" t="n">
         <v>4578.535972690457</v>
@@ -5120,28 +5120,28 @@
         <v>91.57071945380915</v>
       </c>
       <c r="J12" t="n">
-        <v>91.57071945380915</v>
+        <v>284.3835770164424</v>
       </c>
       <c r="K12" t="n">
-        <v>547.3769757191078</v>
+        <v>284.3835770164424</v>
       </c>
       <c r="L12" t="n">
-        <v>702.6959307041611</v>
+        <v>842.8374129072547</v>
       </c>
       <c r="M12" t="n">
-        <v>702.6959307041611</v>
+        <v>842.8374129072547</v>
       </c>
       <c r="N12" t="n">
-        <v>1576.354022815779</v>
+        <v>842.8374129072547</v>
       </c>
       <c r="O12" t="n">
-        <v>1576.354022815779</v>
+        <v>1546.794503453149</v>
       </c>
       <c r="P12" t="n">
-        <v>2138.059915304309</v>
+        <v>2108.500395941679</v>
       </c>
       <c r="Q12" t="n">
-        <v>2138.059915304309</v>
+        <v>2108.500395941679</v>
       </c>
       <c r="R12" t="n">
         <v>2138.059915304309</v>
@@ -5223,28 +5223,28 @@
         <v>1620.969616074659</v>
       </c>
       <c r="R13" t="n">
-        <v>1535.696897750059</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="S13" t="n">
-        <v>1349.305129629969</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="T13" t="n">
-        <v>1109.756390606671</v>
+        <v>1381.420877051361</v>
       </c>
       <c r="U13" t="n">
-        <v>826.9582431527954</v>
+        <v>1098.622729597485</v>
       </c>
       <c r="V13" t="n">
-        <v>553.0724980923173</v>
+        <v>1021.419651090531</v>
       </c>
       <c r="W13" t="n">
-        <v>274.0028336011917</v>
+        <v>742.3499865994054</v>
       </c>
       <c r="X13" t="n">
-        <v>91.57071945380915</v>
+        <v>504.0061244590888</v>
       </c>
       <c r="Y13" t="n">
-        <v>91.57071945380915</v>
+        <v>279.2704258478535</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2461.166649056344</v>
+        <v>2138.790127632103</v>
       </c>
       <c r="C14" t="n">
-        <v>2051.042058369614</v>
+        <v>1728.665536945373</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.578128462675</v>
+        <v>1324.201607038434</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.237912979571</v>
+        <v>909.8613915553304</v>
       </c>
       <c r="F14" t="n">
-        <v>811.207500933259</v>
+        <v>488.830979509018</v>
       </c>
       <c r="G14" t="n">
-        <v>402.4792168260911</v>
+        <v>488.830979509018</v>
       </c>
       <c r="H14" t="n">
-        <v>91.57071945380915</v>
+        <v>177.922482136736</v>
       </c>
       <c r="I14" t="n">
         <v>91.57071945380915</v>
       </c>
       <c r="J14" t="n">
-        <v>345.7561909215634</v>
+        <v>263.7802573176947</v>
       </c>
       <c r="K14" t="n">
-        <v>883.9156920306029</v>
+        <v>801.9397584267342</v>
       </c>
       <c r="L14" t="n">
-        <v>1596.507091842841</v>
+        <v>1514.531158238972</v>
       </c>
       <c r="M14" t="n">
-        <v>2372.825682834595</v>
+        <v>2290.849749230726</v>
       </c>
       <c r="N14" t="n">
-        <v>3126.006699473213</v>
+        <v>3044.030765869344</v>
       </c>
       <c r="O14" t="n">
-        <v>3769.637555890318</v>
+        <v>3687.661622286449</v>
       </c>
       <c r="P14" t="n">
-        <v>4298.794253809469</v>
+        <v>4216.818320205601</v>
       </c>
       <c r="Q14" t="n">
-        <v>4578.535972690457</v>
+        <v>4537.979327000892</v>
       </c>
       <c r="R14" t="n">
         <v>4578.535972690457</v>
       </c>
       <c r="S14" t="n">
-        <v>4578.535972690457</v>
+        <v>4443.254897484558</v>
       </c>
       <c r="T14" t="n">
-        <v>4578.535972690457</v>
+        <v>4221.048413431417</v>
       </c>
       <c r="U14" t="n">
-        <v>4406.565755132142</v>
+        <v>4084.189233707901</v>
       </c>
       <c r="V14" t="n">
-        <v>4056.728200468623</v>
+        <v>3734.351679044381</v>
       </c>
       <c r="W14" t="n">
-        <v>3672.967899603791</v>
+        <v>3350.59137817955</v>
       </c>
       <c r="X14" t="n">
-        <v>3272.324501772744</v>
+        <v>2949.947980348502</v>
       </c>
       <c r="Y14" t="n">
-        <v>2871.387828720834</v>
+        <v>2549.011307296592</v>
       </c>
     </row>
     <row r="15">
@@ -5360,25 +5360,25 @@
         <v>91.57071945380915</v>
       </c>
       <c r="K15" t="n">
-        <v>91.57071945380915</v>
+        <v>547.3769757191078</v>
       </c>
       <c r="L15" t="n">
-        <v>752.6588913730974</v>
+        <v>1208.465147638396</v>
       </c>
       <c r="M15" t="n">
-        <v>752.6588913730974</v>
+        <v>1208.465147638396</v>
       </c>
       <c r="N15" t="n">
-        <v>1626.316983484715</v>
+        <v>1208.465147638396</v>
       </c>
       <c r="O15" t="n">
-        <v>2138.059915304309</v>
+        <v>1912.42223818429</v>
       </c>
       <c r="P15" t="n">
-        <v>2138.059915304309</v>
+        <v>2108.500395941679</v>
       </c>
       <c r="Q15" t="n">
-        <v>2138.059915304309</v>
+        <v>2108.500395941679</v>
       </c>
       <c r="R15" t="n">
         <v>2138.059915304309</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>91.57071945380915</v>
+        <v>689.9158075549559</v>
       </c>
       <c r="C16" t="n">
-        <v>91.57071945380915</v>
+        <v>689.9158075549559</v>
       </c>
       <c r="D16" t="n">
-        <v>91.57071945380915</v>
+        <v>689.4057375078917</v>
       </c>
       <c r="E16" t="n">
-        <v>91.57071945380915</v>
+        <v>689.4057375078917</v>
       </c>
       <c r="F16" t="n">
-        <v>91.57071945380915</v>
+        <v>524.7746116184829</v>
       </c>
       <c r="G16" t="n">
-        <v>91.57071945380915</v>
+        <v>357.5242205440263</v>
       </c>
       <c r="H16" t="n">
-        <v>91.57071945380915</v>
+        <v>207.916765349483</v>
       </c>
       <c r="I16" t="n">
         <v>91.57071945380915</v>
@@ -5460,28 +5460,28 @@
         <v>1620.969616074659</v>
       </c>
       <c r="R16" t="n">
-        <v>1535.696897750059</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="S16" t="n">
-        <v>1349.305129629969</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="T16" t="n">
-        <v>1109.756390606671</v>
+        <v>1381.420877051361</v>
       </c>
       <c r="U16" t="n">
-        <v>826.9582431527954</v>
+        <v>1381.420877051361</v>
       </c>
       <c r="V16" t="n">
-        <v>553.0724980923173</v>
+        <v>1381.420877051361</v>
       </c>
       <c r="W16" t="n">
-        <v>274.0028336011917</v>
+        <v>1102.351212560236</v>
       </c>
       <c r="X16" t="n">
-        <v>91.57071945380915</v>
+        <v>1102.351212560236</v>
       </c>
       <c r="Y16" t="n">
-        <v>91.57071945380915</v>
+        <v>877.6155139490003</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2549.191389976085</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C17" t="n">
-        <v>2139.066799289355</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D17" t="n">
-        <v>1734.602869382415</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E17" t="n">
-        <v>1320.262653899312</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F17" t="n">
-        <v>899.2322418529996</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G17" t="n">
-        <v>490.5039577458317</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H17" t="n">
         <v>179.5954603735497</v>
@@ -5542,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T17" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U17" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V17" t="n">
-        <v>3760.992640523532</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W17" t="n">
-        <v>3760.992640523532</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X17" t="n">
-        <v>3360.349242692484</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y17" t="n">
-        <v>2959.412569640574</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>754.331869609911</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M18" t="n">
-        <v>1597.308950304478</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N18" t="n">
-        <v>1597.308950304478</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q18" t="n">
         <v>2139.732893541123</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>913.8008783232362</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C19" t="n">
-        <v>742.7075058849528</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>583.2128612078627</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>422.3020460761822</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>257.6709201867735</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
         <v>93.2436976906228</v>
@@ -5703,22 +5703,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>1339.844446857597</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V19" t="n">
-        <v>1339.844446857597</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W19" t="n">
-        <v>1339.844446857597</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X19" t="n">
-        <v>1101.500584717281</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y19" t="n">
-        <v>1101.500584717281</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C20" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D20" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E20" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F20" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G20" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H20" t="n">
         <v>93.2436976906228</v>
@@ -5752,10 +5752,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5782,22 +5782,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y20" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>111.2881081840224</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>567.0943644493211</v>
       </c>
       <c r="L21" t="n">
-        <v>754.331869609911</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M21" t="n">
-        <v>1597.308950304478</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N21" t="n">
-        <v>1597.308950304478</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q21" t="n">
         <v>2139.732893541123</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K22" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L22" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M22" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N22" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O22" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P22" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>4390.520398086449</v>
+        <v>1545.439515804519</v>
       </c>
       <c r="T22" t="n">
-        <v>4150.971659063151</v>
+        <v>1305.890776781221</v>
       </c>
       <c r="U22" t="n">
-        <v>3868.173511609275</v>
+        <v>1023.092629327345</v>
       </c>
       <c r="V22" t="n">
-        <v>3594.287766548796</v>
+        <v>1023.092629327345</v>
       </c>
       <c r="W22" t="n">
-        <v>3315.218102057671</v>
+        <v>744.0229648362191</v>
       </c>
       <c r="X22" t="n">
-        <v>3132.785987910289</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="Y22" t="n">
-        <v>3132.785987910289</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2151.931129920876</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C23" t="n">
-        <v>1741.806539234146</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D23" t="n">
-        <v>1337.342609327206</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E23" t="n">
-        <v>923.0023938441032</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F23" t="n">
-        <v>501.9719817977906</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G23" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H23" t="n">
         <v>93.2436976906228</v>
@@ -6016,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4576.597211790305</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4354.390727737164</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4097.330235996674</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V23" t="n">
-        <v>3747.492681333154</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W23" t="n">
-        <v>3363.732380468323</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X23" t="n">
-        <v>2963.088982637275</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y23" t="n">
-        <v>2562.152309585365</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1964.656875926373</v>
       </c>
       <c r="Q24" t="n">
         <v>2139.732893541123</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3132.785987910289</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C25" t="n">
-        <v>3132.785987910289</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D25" t="n">
-        <v>3132.785987910289</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E25" t="n">
-        <v>3132.785987910289</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F25" t="n">
-        <v>3132.785987910289</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G25" t="n">
-        <v>3132.785987910289</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H25" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K25" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L25" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M25" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N25" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O25" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P25" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>4390.520398086449</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>4150.971659063151</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U25" t="n">
-        <v>3868.173511609275</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V25" t="n">
-        <v>3594.287766548796</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W25" t="n">
-        <v>3315.218102057671</v>
+        <v>1608.62111652612</v>
       </c>
       <c r="X25" t="n">
-        <v>3132.785987910289</v>
+        <v>1370.277254385804</v>
       </c>
       <c r="Y25" t="n">
-        <v>3132.785987910289</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C26" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D26" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E26" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F26" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G26" t="n">
         <v>404.1521950629048</v>
@@ -6226,7 +6226,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K26" t="n">
         <v>885.5886702674165</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T26" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W26" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X26" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y26" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="27">
@@ -6308,16 +6308,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N27" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O27" t="n">
         <v>2139.732893541123</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>275.6758118380055</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C28" t="n">
-        <v>104.582439399722</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>104.582439399722</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>104.582439399722</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>104.582439399722</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>104.582439399722</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>104.582439399722</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6426,10 +6426,10 @@
         <v>275.6758118380055</v>
       </c>
       <c r="X28" t="n">
-        <v>275.6758118380055</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="Y28" t="n">
-        <v>275.6758118380055</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2128.160977929772</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C29" t="n">
-        <v>1718.036387243042</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D29" t="n">
-        <v>1313.572457336103</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E29" t="n">
-        <v>899.2322418529996</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F29" t="n">
         <v>899.2322418529996</v>
@@ -6505,10 +6505,10 @@
         <v>3314.038978003258</v>
       </c>
       <c r="X29" t="n">
-        <v>2939.318830646172</v>
+        <v>2950.128063027995</v>
       </c>
       <c r="Y29" t="n">
-        <v>2538.382157594262</v>
+        <v>2549.191389976085</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>286.056555253256</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L30" t="n">
-        <v>286.056555253256</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M30" t="n">
-        <v>1129.033635947823</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N30" t="n">
-        <v>2002.69172805944</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q30" t="n">
         <v>2139.732893541123</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>749.3736558270855</v>
+        <v>1032.970092797216</v>
       </c>
       <c r="C31" t="n">
-        <v>578.280283388802</v>
+        <v>861.8767203589325</v>
       </c>
       <c r="D31" t="n">
-        <v>418.7856387117121</v>
+        <v>702.3820756818425</v>
       </c>
       <c r="E31" t="n">
-        <v>257.8748235800315</v>
+        <v>541.471260550162</v>
       </c>
       <c r="F31" t="n">
-        <v>93.2436976906228</v>
+        <v>376.8401346607533</v>
       </c>
       <c r="G31" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H31" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
@@ -6648,25 +6648,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T31" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U31" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="V31" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="W31" t="n">
-        <v>1400.152922972682</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="X31" t="n">
-        <v>1161.809060832365</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="Y31" t="n">
-        <v>937.0733622211299</v>
+        <v>1220.66979919126</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C32" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D32" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E32" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F32" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G32" t="n">
         <v>404.1521950629048</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T32" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V32" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X32" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y32" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N33" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>93.2436976906228</v>
+        <v>685.9422345323867</v>
       </c>
       <c r="C34" t="n">
-        <v>93.2436976906228</v>
+        <v>685.9422345323867</v>
       </c>
       <c r="D34" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="E34" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="F34" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G34" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H34" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
@@ -6882,28 +6882,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S34" t="n">
-        <v>1622.642594311473</v>
+        <v>1486.153908617705</v>
       </c>
       <c r="T34" t="n">
-        <v>1579.776521841699</v>
+        <v>1486.153908617705</v>
       </c>
       <c r="U34" t="n">
-        <v>1296.978374387823</v>
+        <v>1203.355761163829</v>
       </c>
       <c r="V34" t="n">
-        <v>1023.092629327345</v>
+        <v>1203.355761163829</v>
       </c>
       <c r="W34" t="n">
-        <v>744.0229648362191</v>
+        <v>924.2860966727033</v>
       </c>
       <c r="X34" t="n">
-        <v>505.6791026959025</v>
+        <v>685.9422345323867</v>
       </c>
       <c r="Y34" t="n">
-        <v>280.9434040846672</v>
+        <v>685.9422345323867</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C35" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D35" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E35" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F35" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G35" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H35" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6964,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T35" t="n">
-        <v>4662.18488453114</v>
+        <v>4315.461670445927</v>
       </c>
       <c r="U35" t="n">
-        <v>4494.590496051882</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="V35" t="n">
-        <v>4144.752941388363</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W35" t="n">
-        <v>3760.992640523532</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X35" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y35" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="36">
@@ -7022,19 +7022,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M36" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N36" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q36" t="n">
         <v>2139.732893541123</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>749.3736558270855</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C37" t="n">
-        <v>578.280283388802</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
-        <v>418.7856387117121</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
         <v>93.2436976906228</v>
@@ -7125,22 +7125,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U37" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V37" t="n">
-        <v>1622.642594311473</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W37" t="n">
-        <v>1400.152922972682</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X37" t="n">
-        <v>1161.809060832365</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y37" t="n">
-        <v>937.0733622211299</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2102.237727455811</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="C38" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D38" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E38" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F38" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G38" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H38" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7207,19 +7207,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U38" t="n">
-        <v>4047.636833531609</v>
+        <v>4084.465905365153</v>
       </c>
       <c r="V38" t="n">
-        <v>3697.79927886809</v>
+        <v>3734.628350701634</v>
       </c>
       <c r="W38" t="n">
-        <v>3314.038978003258</v>
+        <v>3350.868049836802</v>
       </c>
       <c r="X38" t="n">
-        <v>2913.395580172211</v>
+        <v>2950.224652005755</v>
       </c>
       <c r="Y38" t="n">
-        <v>2512.458907120301</v>
+        <v>2549.287978953845</v>
       </c>
     </row>
     <row r="39">
@@ -7256,19 +7256,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="N39" t="n">
-        <v>1809.878870496807</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P39" t="n">
         <v>2139.732893541123</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>323.8094765544416</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C40" t="n">
-        <v>323.8094765544416</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D40" t="n">
-        <v>323.8094765544416</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E40" t="n">
-        <v>323.8094765544416</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
-        <v>323.8094765544416</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
-        <v>323.8094765544416</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7359,25 +7359,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1622.642594311473</v>
+        <v>1540.255596373871</v>
       </c>
       <c r="T40" t="n">
-        <v>1622.642594311473</v>
+        <v>1300.706857350573</v>
       </c>
       <c r="U40" t="n">
-        <v>1339.844446857597</v>
+        <v>1017.908709896697</v>
       </c>
       <c r="V40" t="n">
-        <v>1065.958701797119</v>
+        <v>744.0229648362191</v>
       </c>
       <c r="W40" t="n">
-        <v>786.8890373059935</v>
+        <v>744.0229648362191</v>
       </c>
       <c r="X40" t="n">
-        <v>548.5451751656769</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="Y40" t="n">
-        <v>323.8094765544416</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2547.518411739271</v>
+        <v>2018.588815615129</v>
       </c>
       <c r="C41" t="n">
-        <v>2137.393821052541</v>
+        <v>1608.464224928399</v>
       </c>
       <c r="D41" t="n">
-        <v>1732.929891145602</v>
+        <v>1237.849844355507</v>
       </c>
       <c r="E41" t="n">
-        <v>1318.589675662498</v>
+        <v>823.5096288724036</v>
       </c>
       <c r="F41" t="n">
-        <v>897.5592636161858</v>
+        <v>402.4792168260911</v>
       </c>
       <c r="G41" t="n">
-        <v>488.830979509018</v>
+        <v>402.4792168260911</v>
       </c>
       <c r="H41" t="n">
-        <v>177.922482136736</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I41" t="n">
         <v>91.57071945380915</v>
@@ -7441,22 +7441,22 @@
         <v>4443.254897484558</v>
       </c>
       <c r="T41" t="n">
-        <v>4443.254897484558</v>
+        <v>4221.048413431417</v>
       </c>
       <c r="U41" t="n">
-        <v>4186.194405744068</v>
+        <v>3963.987921690927</v>
       </c>
       <c r="V41" t="n">
-        <v>3836.356851080548</v>
+        <v>3614.150367027407</v>
       </c>
       <c r="W41" t="n">
-        <v>3452.596550215717</v>
+        <v>3230.390066162576</v>
       </c>
       <c r="X41" t="n">
-        <v>3051.953152384669</v>
+        <v>2829.746668331528</v>
       </c>
       <c r="Y41" t="n">
-        <v>2957.739591403761</v>
+        <v>2428.809995279618</v>
       </c>
     </row>
     <row r="42">
@@ -7493,16 +7493,16 @@
         <v>91.57071945380915</v>
       </c>
       <c r="K42" t="n">
-        <v>91.57071945380915</v>
+        <v>547.3769757191078</v>
       </c>
       <c r="L42" t="n">
-        <v>91.57071945380915</v>
+        <v>1208.465147638396</v>
       </c>
       <c r="M42" t="n">
-        <v>934.5478001483758</v>
+        <v>1434.102824758415</v>
       </c>
       <c r="N42" t="n">
-        <v>1808.205892259994</v>
+        <v>1434.102824758415</v>
       </c>
       <c r="O42" t="n">
         <v>2138.059915304309</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>256.2018453432179</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="C43" t="n">
-        <v>256.2018453432179</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="D43" t="n">
-        <v>256.2018453432179</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="E43" t="n">
-        <v>256.2018453432179</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="F43" t="n">
         <v>91.57071945380915</v>
@@ -7593,28 +7593,28 @@
         <v>1620.969616074659</v>
       </c>
       <c r="R43" t="n">
-        <v>1535.696897750059</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="S43" t="n">
-        <v>1349.305129629969</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="T43" t="n">
-        <v>1349.305129629969</v>
+        <v>1390.40383721084</v>
       </c>
       <c r="U43" t="n">
-        <v>1186.05077697994</v>
+        <v>1107.605689756965</v>
       </c>
       <c r="V43" t="n">
-        <v>1186.05077697994</v>
+        <v>833.7199446964867</v>
       </c>
       <c r="W43" t="n">
-        <v>906.9811124888142</v>
+        <v>554.650280205361</v>
       </c>
       <c r="X43" t="n">
-        <v>668.6372503484976</v>
+        <v>316.3064180650445</v>
       </c>
       <c r="Y43" t="n">
-        <v>443.9015517372623</v>
+        <v>91.57071945380915</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2376.076374874169</v>
+        <v>2428.809995279618</v>
       </c>
       <c r="C44" t="n">
-        <v>1965.951784187439</v>
+        <v>2018.685404592889</v>
       </c>
       <c r="D44" t="n">
-        <v>1561.4878542805</v>
+        <v>1614.221474685949</v>
       </c>
       <c r="E44" t="n">
-        <v>1147.147638797397</v>
+        <v>1199.881259202846</v>
       </c>
       <c r="F44" t="n">
-        <v>726.1172267510842</v>
+        <v>897.5592636161858</v>
       </c>
       <c r="G44" t="n">
-        <v>317.3889426439164</v>
+        <v>488.830979509018</v>
       </c>
       <c r="H44" t="n">
-        <v>91.57071945380915</v>
+        <v>177.922482136736</v>
       </c>
       <c r="I44" t="n">
         <v>91.57071945380915</v>
       </c>
       <c r="J44" t="n">
-        <v>345.7561909215634</v>
+        <v>263.7802573176947</v>
       </c>
       <c r="K44" t="n">
-        <v>883.9156920306029</v>
+        <v>801.9397584267342</v>
       </c>
       <c r="L44" t="n">
-        <v>1596.507091842841</v>
+        <v>1514.531158238972</v>
       </c>
       <c r="M44" t="n">
-        <v>2372.825682834595</v>
+        <v>2290.849749230726</v>
       </c>
       <c r="N44" t="n">
-        <v>3126.006699473213</v>
+        <v>3044.030765869344</v>
       </c>
       <c r="O44" t="n">
-        <v>3769.637555890318</v>
+        <v>3687.661622286449</v>
       </c>
       <c r="P44" t="n">
-        <v>4298.794253809469</v>
+        <v>4216.818320205601</v>
       </c>
       <c r="Q44" t="n">
-        <v>4578.535972690457</v>
+        <v>4537.979327000892</v>
       </c>
       <c r="R44" t="n">
         <v>4578.535972690457</v>
       </c>
       <c r="S44" t="n">
-        <v>4578.535972690457</v>
+        <v>4443.254897484558</v>
       </c>
       <c r="T44" t="n">
-        <v>4578.535972690457</v>
+        <v>4221.048413431417</v>
       </c>
       <c r="U44" t="n">
-        <v>4321.475480949967</v>
+        <v>3963.987921690927</v>
       </c>
       <c r="V44" t="n">
-        <v>3971.637926286448</v>
+        <v>3614.150367027407</v>
       </c>
       <c r="W44" t="n">
-        <v>3587.877625421616</v>
+        <v>3230.390066162576</v>
       </c>
       <c r="X44" t="n">
-        <v>3187.234227590569</v>
+        <v>2829.746668331528</v>
       </c>
       <c r="Y44" t="n">
-        <v>2786.297554538659</v>
+        <v>2428.809995279618</v>
       </c>
     </row>
     <row r="45">
@@ -7730,19 +7730,19 @@
         <v>91.57071945380915</v>
       </c>
       <c r="K45" t="n">
-        <v>91.57071945380915</v>
+        <v>547.3769757191078</v>
       </c>
       <c r="L45" t="n">
-        <v>91.57071945380915</v>
+        <v>1208.465147638396</v>
       </c>
       <c r="M45" t="n">
-        <v>934.5478001483758</v>
+        <v>1576.354022815779</v>
       </c>
       <c r="N45" t="n">
-        <v>1808.205892259994</v>
+        <v>1576.354022815779</v>
       </c>
       <c r="O45" t="n">
-        <v>2138.059915304309</v>
+        <v>1576.354022815779</v>
       </c>
       <c r="P45" t="n">
         <v>2138.059915304309</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1180.904569754946</v>
+        <v>241.1781746483525</v>
       </c>
       <c r="C46" t="n">
-        <v>1009.811197316662</v>
+        <v>241.1781746483525</v>
       </c>
       <c r="D46" t="n">
-        <v>850.3165526395721</v>
+        <v>241.1781746483525</v>
       </c>
       <c r="E46" t="n">
-        <v>689.4057375078917</v>
+        <v>241.1781746483525</v>
       </c>
       <c r="F46" t="n">
-        <v>524.7746116184829</v>
+        <v>241.1781746483525</v>
       </c>
       <c r="G46" t="n">
-        <v>357.5242205440263</v>
+        <v>241.1781746483525</v>
       </c>
       <c r="H46" t="n">
-        <v>207.916765349483</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I46" t="n">
         <v>91.57071945380915</v>
@@ -7833,25 +7833,25 @@
         <v>1620.969616074659</v>
       </c>
       <c r="S46" t="n">
-        <v>1620.969616074659</v>
+        <v>1434.577847954569</v>
       </c>
       <c r="T46" t="n">
-        <v>1620.969616074659</v>
+        <v>1195.029108931271</v>
       </c>
       <c r="U46" t="n">
-        <v>1620.969616074659</v>
+        <v>912.2309614773956</v>
       </c>
       <c r="V46" t="n">
-        <v>1620.969616074659</v>
+        <v>638.3452164169175</v>
       </c>
       <c r="W46" t="n">
-        <v>1341.899951583533</v>
+        <v>359.2755519257919</v>
       </c>
       <c r="X46" t="n">
-        <v>1341.899951583533</v>
+        <v>359.2755519257919</v>
       </c>
       <c r="Y46" t="n">
-        <v>1341.899951583533</v>
+        <v>241.1781746483525</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>594.6194560602019</v>
+        <v>535.5249675786654</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
         <v>87.31214281472352</v>
@@ -8057,7 +8057,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
         <v>55.82578278461539</v>
@@ -8066,16 +8066,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>175.2980289959033</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
         <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>576.3232053728293</v>
+        <v>499.2964884458369</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
@@ -8221,7 +8221,7 @@
         <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>617.5489684328704</v>
+        <v>272.0504334731807</v>
       </c>
       <c r="M5" t="n">
         <v>93.29022445704545</v>
@@ -8230,13 +8230,13 @@
         <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>594.6194560602019</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
         <v>87.31214281472352</v>
@@ -8297,28 +8297,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>421.0562344946766</v>
+        <v>498.2302468367829</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476414</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
@@ -8546,16 +8546,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>282.1764805785802</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>247.2726194786469</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
@@ -8710,10 +8710,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.4388617681339</v>
+        <v>372.6011972082306</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,22 +8768,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>213.0023571290847</v>
+        <v>620.2093075389423</v>
       </c>
       <c r="M12" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
         <v>621.6393243851574</v>
@@ -8792,7 +8792,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>330.076592815888</v>
+        <v>247.2726194786469</v>
       </c>
       <c r="K14" t="n">
         <v>632.7318453389136</v>
@@ -8947,10 +8947,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>372.6011972082306</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
         <v>723.8803540323523</v>
@@ -9017,19 +9017,19 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>574.6635313430239</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>252.3183802122873</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,28 +9242,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>605.6544519663084</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
         <v>632.7318453389136</v>
@@ -9424,7 +9424,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,28 +9479,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>69.59591606606023</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>605.6544519663084</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9716,28 +9716,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>233.5370807419598</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9956,19 +9956,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>285.4811293141939</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P27" t="n">
         <v>54.25963500280375</v>
@@ -10190,28 +10190,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>75.79096100447751</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>196.176898678467</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10427,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10670,22 +10670,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>536.2013208684158</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10846,7 +10846,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,22 +10904,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>429.1692081600164</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
         <v>56.69261850483872</v>
@@ -11141,19 +11141,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>285.4811293141939</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
         <v>54.25963500280375</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>330.076592815888</v>
+        <v>247.2726194786469</v>
       </c>
       <c r="K44" t="n">
         <v>632.7318453389136</v>
@@ -11317,10 +11317,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>372.6011972082306</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,22 +11378,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>429.1692081600164</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
         <v>56.69261850483872</v>
@@ -23269,10 +23269,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>130.352642708244</v>
       </c>
       <c r="G11" t="n">
-        <v>130.352642708244</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>169.3824387139007</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>194.7158398879884</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>55.35263051300473</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>84.23937144035295</v>
+        <v>118.9992988968043</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>157.3947288837255</v>
       </c>
       <c r="E16" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300473</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>0.7564490426710222</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23791,10 +23791,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>62.56142803888758</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>2.794936892522884</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
         <v>148.1113806425979</v>
@@ -23943,22 +23943,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="20">
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -24022,10 +24022,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>137.0114616263634</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>108.096802717004</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>55.35263051300575</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>49.19646844041357</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>262.3977048387154</v>
       </c>
       <c r="X25" t="n">
-        <v>55.35263051300575</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>222.4883416251229</v>
@@ -24457,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>356.995880838973</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
@@ -24621,7 +24621,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>103.9572311447089</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>55.35263051300456</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24691,7 +24691,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>25.66401796922162</v>
+        <v>36.36515802722613</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
@@ -24900,13 +24900,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>56.01419322081091</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>9.063124895001437</v>
       </c>
     </row>
     <row r="32">
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>356.995880838973</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
@@ -25089,13 +25089,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>133.8240427434127</v>
       </c>
       <c r="T34" t="n">
-        <v>194.7158398879884</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,16 +25204,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>10.65670172208945</v>
       </c>
       <c r="U35" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
         <v>165.577887163712</v>
@@ -25365,22 +25365,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>56.01419322081091</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="38">
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>356.995880838973</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,7 +25447,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>36.46078111520842</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
@@ -25566,10 +25566,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>35.03384500413439</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>102.9647224806628</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>33.51105384070695</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>303.6558809502911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
@@ -25797,7 +25797,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>165.577887163712</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U43" t="n">
-        <v>118.3483568558082</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25876,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>117.521332295056</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>84.23937144035304</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>26.43728131980203</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,16 +26073,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>105.5719381204579</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>687887.8309381946</v>
+        <v>687887.8309381948</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>695646.4269445541</v>
+        <v>695646.4269445542</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>695646.4269445542</v>
+        <v>695646.426944554</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>695646.4269445543</v>
+        <v>695646.4269445541</v>
       </c>
     </row>
     <row r="15">
@@ -26316,46 +26316,46 @@
         <v>390917.7432778967</v>
       </c>
       <c r="C2" t="n">
-        <v>390917.7432778966</v>
+        <v>390917.7432778967</v>
       </c>
       <c r="D2" t="n">
-        <v>390917.7432778969</v>
+        <v>390917.7432778968</v>
       </c>
       <c r="E2" t="n">
-        <v>343702.3821590812</v>
+        <v>343702.3821590811</v>
       </c>
       <c r="F2" t="n">
         <v>343702.3821590812</v>
       </c>
       <c r="G2" t="n">
-        <v>347578.4010421128</v>
+        <v>347578.4010421127</v>
       </c>
       <c r="H2" t="n">
-        <v>347578.4010421128</v>
+        <v>347578.4010421127</v>
       </c>
       <c r="I2" t="n">
-        <v>347578.4010421129</v>
+        <v>347578.4010421126</v>
       </c>
       <c r="J2" t="n">
-        <v>347578.401042113</v>
+        <v>347578.4010421127</v>
       </c>
       <c r="K2" t="n">
-        <v>347578.4010421128</v>
+        <v>347578.4010421126</v>
       </c>
       <c r="L2" t="n">
-        <v>347578.401042113</v>
+        <v>347578.4010421127</v>
       </c>
       <c r="M2" t="n">
-        <v>347578.4010421129</v>
+        <v>347578.4010421127</v>
       </c>
       <c r="N2" t="n">
-        <v>347578.4010421129</v>
+        <v>347578.4010421127</v>
       </c>
       <c r="O2" t="n">
         <v>343702.3821590812</v>
       </c>
       <c r="P2" t="n">
-        <v>343702.3821590812</v>
+        <v>343702.3821590811</v>
       </c>
     </row>
     <row r="3">
@@ -26429,7 +26429,7 @@
         <v>29853.17293568463</v>
       </c>
       <c r="F4" t="n">
-        <v>29853.17293568462</v>
+        <v>29853.17293568463</v>
       </c>
       <c r="G4" t="n">
         <v>30192.61954398331</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-23838.92792570993</v>
+        <v>-23838.92792571005</v>
       </c>
       <c r="C6" t="n">
         <v>151116.581967404</v>
       </c>
       <c r="D6" t="n">
-        <v>19539.21714267906</v>
+        <v>19539.21714267894</v>
       </c>
       <c r="E6" t="n">
-        <v>244255.4624385016</v>
+        <v>244058.7317671731</v>
       </c>
       <c r="F6" t="n">
-        <v>244255.4624385017</v>
+        <v>244058.7317671732</v>
       </c>
       <c r="G6" t="n">
-        <v>240788.8432527928</v>
+        <v>240608.2626601436</v>
       </c>
       <c r="H6" t="n">
-        <v>246520.5712532562</v>
+        <v>246339.990660607</v>
       </c>
       <c r="I6" t="n">
-        <v>246520.5712532563</v>
+        <v>246339.9906606069</v>
       </c>
       <c r="J6" t="n">
-        <v>109925.7704473614</v>
+        <v>109745.189854712</v>
       </c>
       <c r="K6" t="n">
-        <v>246520.5712532562</v>
+        <v>246339.9906606069</v>
       </c>
       <c r="L6" t="n">
-        <v>88953.60037572637</v>
+        <v>88773.01978307703</v>
       </c>
       <c r="M6" t="n">
-        <v>246520.5712532563</v>
+        <v>246339.990660607</v>
       </c>
       <c r="N6" t="n">
-        <v>246520.5712532563</v>
+        <v>246339.990660607</v>
       </c>
       <c r="O6" t="n">
-        <v>244255.4624385016</v>
+        <v>244058.7317671732</v>
       </c>
       <c r="P6" t="n">
-        <v>244255.4624385016</v>
+        <v>244058.7317671731</v>
       </c>
     </row>
   </sheetData>
@@ -27381,25 +27381,25 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="F2" t="n">
-        <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>234.9848782552364</v>
-      </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>126.8237002223281</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>33.43810748553913</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>104.9675553986607</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27593,7 +27593,7 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
@@ -27602,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27627,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>152.1234863376399</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>180.4845211054441</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
         <v>165.577887163712</v>
@@ -27824,16 +27824,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>133.9174540021652</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>164.1762662001701</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>169.7276164964508</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>269.1504133398155</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28013,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>126.9450269688242</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>162.9848146305146</v>
@@ -28067,10 +28067,10 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>164.1762662001699</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>500.9700927793177</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34786,16 +34786,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>117.7337452574859</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>522.0635703700256</v>
+        <v>445.0368534430332</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
@@ -34941,7 +34941,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>522.0635703700256</v>
+        <v>176.5650354103359</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34950,13 +34950,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
-        <v>500.9700927793177</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,28 +35017,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>445.0368534430329</v>
+      </c>
+      <c r="O6" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="N6" t="n">
-        <v>367.8628411009266</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367923</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35266,16 +35266,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>227.9168455757764</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>173.9490281453389</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
@@ -35430,10 +35430,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>324.4050573689818</v>
+        <v>282.5673928090785</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>156.8878333182357</v>
+        <v>564.0947837280933</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
         <v>567.3796893823536</v>
@@ -35512,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>256.7530014825801</v>
+        <v>173.9490281453389</v>
       </c>
       <c r="K14" t="n">
         <v>543.5954556656965</v>
@@ -35667,10 +35667,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>282.5673928090785</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
         <v>667.7658302215033</v>
@@ -35737,19 +35737,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>516.9120523430239</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>198.0587452094835</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
         <v>543.5954556656965</v>
@@ -36144,7 +36144,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>18.22667726606021</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,19 +36676,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>227.9168455757764</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>138.425419678467</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37390,22 +37390,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>478.6370371299984</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>371.6049244215989</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37861,19 +37861,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>227.9168455757764</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>256.7530014825801</v>
+        <v>173.9490281453389</v>
       </c>
       <c r="K44" t="n">
         <v>543.5954556656965</v>
@@ -38037,10 +38037,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>282.5673928090785</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>851.4920007015825</v>
+        <v>371.6049244215989</v>
       </c>
       <c r="N45" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
